--- a/List_Franchise_noChicken2.xlsx
+++ b/List_Franchise_noChicken2.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Sofia_Boram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38ED80B0-0D42-470F-8560-BBA9A3A9C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="2160" windowWidth="24405" windowHeight="12675" xr2:uid="{4260D490-E3E7-5147-BB03-4429C98E410F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$710</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$707</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,22 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="708">
   <si>
     <t>Search Query</t>
   </si>
   <si>
     <t>Store_ID_raw</t>
-  </si>
-  <si>
-    <t>아웃백</t>
-  </si>
-  <si>
-    <t>닥터로빈</t>
-  </si>
-  <si>
-    <t>롯데리아</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>투뿔등심</t>
@@ -2389,7 +2378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2741,11 +2730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14BEF66-708F-2449-841C-67F3A69350D8}">
-  <dimension ref="A1:B710"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +2812,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2828,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2860,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2868,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2876,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2884,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2892,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2900,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2916,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2924,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2932,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2940,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2967,7 +2956,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +2964,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2972,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +2980,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2999,7 +2988,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3007,7 +2996,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3023,7 +3012,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3031,7 +3020,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3028,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,7 +3036,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3044,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3063,7 +3052,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3071,7 +3060,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3087,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3095,7 +3084,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3103,7 +3092,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3111,7 +3100,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3119,7 +3108,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3116,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3135,7 +3124,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3143,7 +3132,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,7 +3140,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3159,7 +3148,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,7 +3156,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3164,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3172,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3191,7 +3180,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3188,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3207,7 +3196,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3204,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +3212,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3220,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3228,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +3236,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +3244,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +3252,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3260,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3268,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +3276,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3284,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3292,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +3300,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3308,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3316,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +3324,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3332,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3340,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3348,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3356,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3364,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3372,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3380,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3388,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3407,7 +3396,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3404,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3423,7 +3412,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,7 +3420,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,7 +3428,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3436,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,7 +3444,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3463,7 +3452,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,7 +3460,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3479,7 +3468,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3487,7 +3476,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,7 +3484,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,7 +3492,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3511,7 +3500,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,7 +3508,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3527,7 +3516,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3535,7 +3524,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,7 +3532,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3548,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,7 +3556,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,7 +3564,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3583,7 +3572,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,7 +3580,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3599,7 +3588,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3596,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3604,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3623,7 +3612,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3631,7 +3620,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3639,7 +3628,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3636,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3644,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3652,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,7 +3660,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,7 +3668,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3687,7 +3676,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +3684,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3692,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,7 +3700,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,7 +3708,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3716,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3724,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3732,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3740,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3748,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,7 +3756,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3764,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,7 +3772,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3791,7 +3780,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3788,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3796,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3804,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3823,7 +3812,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,7 +3820,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,7 +3828,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3836,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3855,7 +3844,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3852,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,7 +3860,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3868,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3876,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3895,7 +3884,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,7 +3892,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="1">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3911,7 +3900,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="1">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,7 +3908,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="1">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3927,7 +3916,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,7 +3924,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="1">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3943,7 +3932,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3940,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +3948,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,7 +3956,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +3964,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="1">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +3972,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +3980,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="1">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,7 +3988,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="1">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +3996,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4004,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="1">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4012,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +4020,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="1">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +4028,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4036,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="1">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,7 +4044,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4052,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4071,7 +4060,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +4068,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="1">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4076,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +4084,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +4092,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="1">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,7 +4100,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4108,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,7 +4116,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +4124,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="1">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,7 +4132,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="1">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +4140,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="1">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4159,7 +4148,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="1">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4156,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,7 +4164,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4183,7 +4172,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +4180,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4188,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +4196,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4215,7 +4204,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +4212,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="1">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4231,7 +4220,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="1">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,7 +4228,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="1">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4247,7 +4236,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="1">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4255,7 +4244,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="1">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +4252,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="1">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4271,7 +4260,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +4268,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4287,7 +4276,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4295,7 +4284,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +4292,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +4300,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4319,7 +4308,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4327,7 +4316,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4335,7 +4324,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4343,7 +4332,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +4340,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,7 +4348,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +4356,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +4364,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +4372,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +4380,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="1">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +4388,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4396,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="1">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +4404,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="1">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4412,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="1">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,7 +4420,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4439,7 +4428,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4447,7 +4436,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="1">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4455,7 +4444,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4463,7 +4452,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +4460,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4479,7 +4468,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4487,7 +4476,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4495,7 +4484,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4503,7 +4492,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4511,7 +4500,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4519,7 +4508,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4527,7 +4516,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4535,7 +4524,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,7 +4532,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4551,7 +4540,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4559,7 +4548,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4567,7 +4556,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4575,7 +4564,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4583,7 +4572,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4591,7 +4580,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4599,7 +4588,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4607,7 +4596,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4615,7 +4604,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4623,7 +4612,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4631,7 +4620,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4639,7 +4628,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4647,7 +4636,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4655,7 +4644,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4663,7 +4652,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4671,7 +4660,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4679,7 +4668,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4687,7 +4676,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4695,7 +4684,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4703,7 +4692,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4711,7 +4700,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4719,7 +4708,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4727,7 +4716,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4735,7 +4724,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4743,7 +4732,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4751,7 +4740,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4759,7 +4748,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4767,7 +4756,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4775,7 +4764,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4783,7 +4772,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4791,7 +4780,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4799,7 +4788,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4807,7 +4796,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4815,7 +4804,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4823,7 +4812,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4831,7 +4820,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4839,7 +4828,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4847,7 +4836,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4855,7 +4844,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4863,7 +4852,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4871,7 +4860,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4879,7 +4868,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4887,7 +4876,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4895,7 +4884,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4903,7 +4892,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4911,7 +4900,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4919,7 +4908,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4927,7 +4916,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4935,7 +4924,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4943,7 +4932,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4951,7 +4940,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4959,7 +4948,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4967,7 +4956,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4975,7 +4964,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4983,7 +4972,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4991,7 +4980,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4999,7 +4988,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -5007,7 +4996,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -5015,7 +5004,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -5023,7 +5012,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -5031,7 +5020,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -5039,7 +5028,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -5047,7 +5036,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -5055,7 +5044,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5063,7 +5052,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -5071,7 +5060,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -5079,7 +5068,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,7 +5076,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -5095,7 +5084,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -5103,7 +5092,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -5111,7 +5100,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5119,7 +5108,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -5127,7 +5116,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -5135,7 +5124,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5143,7 +5132,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5151,7 +5140,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5159,7 +5148,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5167,7 +5156,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5175,7 +5164,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5183,7 +5172,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5191,7 +5180,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="1">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5199,7 +5188,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="1">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5207,7 +5196,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="1">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5215,7 +5204,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="1">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5223,7 +5212,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="1">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5231,7 +5220,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="1">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5239,7 +5228,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="1">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5247,7 +5236,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="1">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5255,7 +5244,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="1">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5263,7 +5252,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="1">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5271,7 +5260,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="1">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5279,7 +5268,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="1">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5287,7 +5276,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="1">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5295,7 +5284,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="1">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5303,7 +5292,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5311,7 +5300,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5319,7 +5308,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5327,7 +5316,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5335,7 +5324,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5343,7 +5332,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="1">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5351,7 +5340,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5359,7 +5348,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5367,7 +5356,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5375,7 +5364,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5383,7 +5372,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5391,7 +5380,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5399,7 +5388,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5407,7 +5396,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5415,7 +5404,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5423,7 +5412,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5431,7 +5420,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5439,7 +5428,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5447,7 +5436,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5455,7 +5444,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5463,7 +5452,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5471,7 +5460,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5479,7 +5468,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5487,7 +5476,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5495,7 +5484,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5503,7 +5492,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5511,7 +5500,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5519,7 +5508,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5527,7 +5516,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="1">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5535,7 +5524,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="1">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5543,7 +5532,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="1">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5551,7 +5540,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="1">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5559,7 +5548,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="1">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5567,7 +5556,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="1">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5575,7 +5564,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="1">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5583,7 +5572,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="1">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5591,7 +5580,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="1">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5599,7 +5588,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="1">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5607,7 +5596,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="1">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5615,7 +5604,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="1">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5623,7 +5612,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="1">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5631,7 +5620,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="1">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5639,7 +5628,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="1">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5647,7 +5636,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="1">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5655,7 +5644,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="1">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5663,7 +5652,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="1">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5671,7 +5660,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="1">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5679,7 +5668,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="1">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5687,7 +5676,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="1">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5695,7 +5684,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="1">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5703,7 +5692,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="1">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5711,7 +5700,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="1">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5719,7 +5708,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="1">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5727,7 +5716,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="1">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5735,7 +5724,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="1">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5743,7 +5732,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="1">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5751,7 +5740,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="1">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5759,7 +5748,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="1">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5767,7 +5756,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="1">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5775,7 +5764,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="1">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5783,7 +5772,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="1">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5791,7 +5780,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5799,7 +5788,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="1">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5807,7 +5796,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="1">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5815,7 +5804,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="1">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5823,7 +5812,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="1">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5831,7 +5820,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="1">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5839,7 +5828,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="1">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5847,7 +5836,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="1">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5855,7 +5844,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="1">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5863,7 +5852,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="1">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5871,7 +5860,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="1">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5879,7 +5868,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="1">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5887,7 +5876,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="1">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5895,7 +5884,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="1">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5903,7 +5892,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="1">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5911,7 +5900,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="1">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5919,7 +5908,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="1">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5927,7 +5916,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="1">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5935,7 +5924,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="1">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5943,7 +5932,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="1">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5951,7 +5940,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="1">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5959,7 +5948,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="1">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5967,7 +5956,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="1">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5975,7 +5964,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="1">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5983,7 +5972,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="1">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5991,7 +5980,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="1">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5999,7 +5988,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="1">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -6007,7 +5996,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="1">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -6015,7 +6004,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="1">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -6023,7 +6012,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="1">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6031,7 +6020,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="1">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -6039,7 +6028,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="1">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -6047,7 +6036,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="1">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -6055,7 +6044,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="1">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6063,7 +6052,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="1">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6071,7 +6060,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="1">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6079,7 +6068,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="1">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -6087,7 +6076,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="1">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -6095,7 +6084,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="1">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6103,7 +6092,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="1">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -6111,7 +6100,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="1">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -6119,7 +6108,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="1">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6127,7 +6116,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="1">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -6135,7 +6124,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="1">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6143,7 +6132,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="1">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6151,7 +6140,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="1">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6159,7 +6148,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="1">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6167,7 +6156,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="1">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6164,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="1">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6183,7 +6172,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="1">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6191,7 +6180,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="1">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6199,7 +6188,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="1">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6207,7 +6196,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6215,7 +6204,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="1">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6223,7 +6212,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="1">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6231,7 +6220,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="1">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6239,7 +6228,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="1">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,7 +6236,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="1">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6255,7 +6244,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="1">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6263,7 +6252,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="1">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6271,7 +6260,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="1">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6279,7 +6268,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="1">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6287,7 +6276,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="1">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6295,7 +6284,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="1">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6303,7 +6292,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="1">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6311,7 +6300,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="1">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6319,7 +6308,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="1">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6327,7 +6316,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="1">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6335,7 +6324,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="1">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6343,7 +6332,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="1">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6351,7 +6340,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="1">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6359,7 +6348,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="1">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6367,7 +6356,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="1">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6375,7 +6364,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="1">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6383,7 +6372,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="1">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,7 +6380,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="1">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6399,7 +6388,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="1">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6407,7 +6396,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="1">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6415,7 +6404,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6423,7 +6412,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="1">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6431,7 +6420,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="1">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6439,7 +6428,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="1">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6447,7 +6436,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="1">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6455,7 +6444,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="1">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6463,7 +6452,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="1">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6471,7 +6460,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="1">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +6468,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="1">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6487,7 +6476,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="1">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6495,7 +6484,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="1">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +6492,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="1">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6511,7 +6500,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="1">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6519,7 +6508,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="1">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6527,7 +6516,7 @@
         <v>472</v>
       </c>
       <c r="B472" s="1">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6535,7 +6524,7 @@
         <v>473</v>
       </c>
       <c r="B473" s="1">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6543,7 +6532,7 @@
         <v>474</v>
       </c>
       <c r="B474" s="1">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6551,7 +6540,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6559,7 +6548,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="1">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6567,7 +6556,7 @@
         <v>477</v>
       </c>
       <c r="B477" s="1">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6564,7 @@
         <v>478</v>
       </c>
       <c r="B478" s="1">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6583,7 +6572,7 @@
         <v>479</v>
       </c>
       <c r="B479" s="1">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6591,7 +6580,7 @@
         <v>480</v>
       </c>
       <c r="B480" s="1">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6599,7 +6588,7 @@
         <v>481</v>
       </c>
       <c r="B481" s="1">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6607,7 +6596,7 @@
         <v>482</v>
       </c>
       <c r="B482" s="1">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6615,7 +6604,7 @@
         <v>483</v>
       </c>
       <c r="B483" s="1">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6623,7 +6612,7 @@
         <v>484</v>
       </c>
       <c r="B484" s="1">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6631,7 +6620,7 @@
         <v>485</v>
       </c>
       <c r="B485" s="1">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6639,7 +6628,7 @@
         <v>486</v>
       </c>
       <c r="B486" s="1">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6647,7 +6636,7 @@
         <v>487</v>
       </c>
       <c r="B487" s="1">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6655,7 +6644,7 @@
         <v>488</v>
       </c>
       <c r="B488" s="1">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6663,7 +6652,7 @@
         <v>489</v>
       </c>
       <c r="B489" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6671,7 +6660,7 @@
         <v>490</v>
       </c>
       <c r="B490" s="1">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6679,7 +6668,7 @@
         <v>491</v>
       </c>
       <c r="B491" s="1">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6687,7 +6676,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="1">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6695,7 +6684,7 @@
         <v>493</v>
       </c>
       <c r="B493" s="1">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6703,7 +6692,7 @@
         <v>494</v>
       </c>
       <c r="B494" s="1">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6711,7 +6700,7 @@
         <v>495</v>
       </c>
       <c r="B495" s="1">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6719,7 +6708,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="1">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6727,7 +6716,7 @@
         <v>497</v>
       </c>
       <c r="B497" s="1">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6735,7 +6724,7 @@
         <v>498</v>
       </c>
       <c r="B498" s="1">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6743,7 +6732,7 @@
         <v>499</v>
       </c>
       <c r="B499" s="1">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6751,7 +6740,7 @@
         <v>500</v>
       </c>
       <c r="B500" s="1">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6759,7 +6748,7 @@
         <v>501</v>
       </c>
       <c r="B501" s="1">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6767,7 +6756,7 @@
         <v>502</v>
       </c>
       <c r="B502" s="1">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6775,7 +6764,7 @@
         <v>503</v>
       </c>
       <c r="B503" s="1">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6783,7 +6772,7 @@
         <v>504</v>
       </c>
       <c r="B504" s="1">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6791,7 +6780,7 @@
         <v>505</v>
       </c>
       <c r="B505" s="1">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6799,7 +6788,7 @@
         <v>506</v>
       </c>
       <c r="B506" s="1">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6807,7 +6796,7 @@
         <v>507</v>
       </c>
       <c r="B507" s="1">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6815,7 +6804,7 @@
         <v>508</v>
       </c>
       <c r="B508" s="1">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6823,7 +6812,7 @@
         <v>509</v>
       </c>
       <c r="B509" s="1">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6831,7 +6820,7 @@
         <v>510</v>
       </c>
       <c r="B510" s="1">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6839,7 +6828,7 @@
         <v>511</v>
       </c>
       <c r="B511" s="1">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6847,7 +6836,7 @@
         <v>512</v>
       </c>
       <c r="B512" s="1">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6855,7 +6844,7 @@
         <v>513</v>
       </c>
       <c r="B513" s="1">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6863,7 +6852,7 @@
         <v>514</v>
       </c>
       <c r="B514" s="1">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6871,7 +6860,7 @@
         <v>515</v>
       </c>
       <c r="B515" s="1">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6879,7 +6868,7 @@
         <v>516</v>
       </c>
       <c r="B516" s="1">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6887,7 +6876,7 @@
         <v>517</v>
       </c>
       <c r="B517" s="1">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6895,7 +6884,7 @@
         <v>518</v>
       </c>
       <c r="B518" s="1">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6903,7 +6892,7 @@
         <v>519</v>
       </c>
       <c r="B519" s="1">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6911,7 +6900,7 @@
         <v>520</v>
       </c>
       <c r="B520" s="1">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6919,7 +6908,7 @@
         <v>521</v>
       </c>
       <c r="B521" s="1">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6927,7 +6916,7 @@
         <v>522</v>
       </c>
       <c r="B522" s="1">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6935,7 +6924,7 @@
         <v>523</v>
       </c>
       <c r="B523" s="1">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +6932,7 @@
         <v>524</v>
       </c>
       <c r="B524" s="1">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6951,7 +6940,7 @@
         <v>525</v>
       </c>
       <c r="B525" s="1">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6959,7 +6948,7 @@
         <v>526</v>
       </c>
       <c r="B526" s="1">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6967,7 +6956,7 @@
         <v>527</v>
       </c>
       <c r="B527" s="1">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6975,7 +6964,7 @@
         <v>528</v>
       </c>
       <c r="B528" s="1">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6983,7 +6972,7 @@
         <v>529</v>
       </c>
       <c r="B529" s="1">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6991,7 +6980,7 @@
         <v>530</v>
       </c>
       <c r="B530" s="1">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6999,7 +6988,7 @@
         <v>531</v>
       </c>
       <c r="B531" s="1">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -7007,7 +6996,7 @@
         <v>532</v>
       </c>
       <c r="B532" s="1">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,7 +7004,7 @@
         <v>533</v>
       </c>
       <c r="B533" s="1">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -7023,7 +7012,7 @@
         <v>534</v>
       </c>
       <c r="B534" s="1">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7031,7 +7020,7 @@
         <v>535</v>
       </c>
       <c r="B535" s="1">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -7039,7 +7028,7 @@
         <v>536</v>
       </c>
       <c r="B536" s="1">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -7047,7 +7036,7 @@
         <v>537</v>
       </c>
       <c r="B537" s="1">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -7055,7 +7044,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="1">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -7063,7 +7052,7 @@
         <v>539</v>
       </c>
       <c r="B539" s="1">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7071,7 +7060,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="1">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -7079,7 +7068,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="1">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -7087,7 +7076,7 @@
         <v>542</v>
       </c>
       <c r="B542" s="1">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -7095,7 +7084,7 @@
         <v>543</v>
       </c>
       <c r="B543" s="1">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7103,7 +7092,7 @@
         <v>544</v>
       </c>
       <c r="B544" s="1">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7111,7 +7100,7 @@
         <v>545</v>
       </c>
       <c r="B545" s="1">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7119,7 +7108,7 @@
         <v>546</v>
       </c>
       <c r="B546" s="1">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -7127,7 +7116,7 @@
         <v>547</v>
       </c>
       <c r="B547" s="1">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7135,7 +7124,7 @@
         <v>548</v>
       </c>
       <c r="B548" s="1">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7143,7 +7132,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="1">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7151,7 +7140,7 @@
         <v>550</v>
       </c>
       <c r="B550" s="1">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7159,7 +7148,7 @@
         <v>551</v>
       </c>
       <c r="B551" s="1">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7167,7 +7156,7 @@
         <v>552</v>
       </c>
       <c r="B552" s="1">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7175,7 +7164,7 @@
         <v>553</v>
       </c>
       <c r="B553" s="1">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7183,7 +7172,7 @@
         <v>554</v>
       </c>
       <c r="B554" s="1">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7191,7 +7180,7 @@
         <v>555</v>
       </c>
       <c r="B555" s="1">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7199,7 +7188,7 @@
         <v>556</v>
       </c>
       <c r="B556" s="1">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7207,7 +7196,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7215,7 +7204,7 @@
         <v>558</v>
       </c>
       <c r="B558" s="1">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7223,7 +7212,7 @@
         <v>559</v>
       </c>
       <c r="B559" s="1">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7231,7 +7220,7 @@
         <v>560</v>
       </c>
       <c r="B560" s="1">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7239,7 +7228,7 @@
         <v>561</v>
       </c>
       <c r="B561" s="1">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7247,7 +7236,7 @@
         <v>562</v>
       </c>
       <c r="B562" s="1">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7255,7 +7244,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="1">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7263,7 +7252,7 @@
         <v>564</v>
       </c>
       <c r="B564" s="1">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7271,7 +7260,7 @@
         <v>565</v>
       </c>
       <c r="B565" s="1">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7279,7 +7268,7 @@
         <v>566</v>
       </c>
       <c r="B566" s="1">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7287,7 +7276,7 @@
         <v>567</v>
       </c>
       <c r="B567" s="1">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7284,7 @@
         <v>568</v>
       </c>
       <c r="B568" s="1">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7303,7 +7292,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7311,7 +7300,7 @@
         <v>570</v>
       </c>
       <c r="B570" s="1">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7319,7 +7308,7 @@
         <v>571</v>
       </c>
       <c r="B571" s="1">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7327,7 +7316,7 @@
         <v>572</v>
       </c>
       <c r="B572" s="1">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7335,7 +7324,7 @@
         <v>573</v>
       </c>
       <c r="B573" s="1">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7343,7 +7332,7 @@
         <v>574</v>
       </c>
       <c r="B574" s="1">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7351,7 +7340,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7359,7 +7348,7 @@
         <v>576</v>
       </c>
       <c r="B576" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7367,7 +7356,7 @@
         <v>577</v>
       </c>
       <c r="B577" s="1">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7375,7 +7364,7 @@
         <v>578</v>
       </c>
       <c r="B578" s="1">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7383,7 +7372,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="1">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7391,7 +7380,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="1">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7399,7 +7388,7 @@
         <v>581</v>
       </c>
       <c r="B581" s="1">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7407,7 +7396,7 @@
         <v>582</v>
       </c>
       <c r="B582" s="1">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7415,7 +7404,7 @@
         <v>583</v>
       </c>
       <c r="B583" s="1">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7423,7 +7412,7 @@
         <v>584</v>
       </c>
       <c r="B584" s="1">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7431,7 +7420,7 @@
         <v>585</v>
       </c>
       <c r="B585" s="1">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7428,7 @@
         <v>586</v>
       </c>
       <c r="B586" s="1">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7447,7 +7436,7 @@
         <v>587</v>
       </c>
       <c r="B587" s="1">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7455,7 +7444,7 @@
         <v>588</v>
       </c>
       <c r="B588" s="1">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7463,7 +7452,7 @@
         <v>589</v>
       </c>
       <c r="B589" s="1">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7471,7 +7460,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="1">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7479,7 +7468,7 @@
         <v>591</v>
       </c>
       <c r="B591" s="1">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7487,7 +7476,7 @@
         <v>592</v>
       </c>
       <c r="B592" s="1">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7495,7 +7484,7 @@
         <v>593</v>
       </c>
       <c r="B593" s="1">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7503,7 +7492,7 @@
         <v>594</v>
       </c>
       <c r="B594" s="1">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7511,7 +7500,7 @@
         <v>595</v>
       </c>
       <c r="B595" s="1">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7519,7 +7508,7 @@
         <v>596</v>
       </c>
       <c r="B596" s="1">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7527,7 +7516,7 @@
         <v>597</v>
       </c>
       <c r="B597" s="1">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7535,7 +7524,7 @@
         <v>598</v>
       </c>
       <c r="B598" s="1">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7543,7 +7532,7 @@
         <v>599</v>
       </c>
       <c r="B599" s="1">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7551,7 +7540,7 @@
         <v>600</v>
       </c>
       <c r="B600" s="1">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7559,7 +7548,7 @@
         <v>601</v>
       </c>
       <c r="B601" s="1">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7567,7 +7556,7 @@
         <v>602</v>
       </c>
       <c r="B602" s="1">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7575,7 +7564,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7583,7 +7572,7 @@
         <v>604</v>
       </c>
       <c r="B604" s="1">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7591,7 +7580,7 @@
         <v>605</v>
       </c>
       <c r="B605" s="1">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7599,7 +7588,7 @@
         <v>606</v>
       </c>
       <c r="B606" s="1">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7607,7 +7596,7 @@
         <v>607</v>
       </c>
       <c r="B607" s="1">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7615,7 +7604,7 @@
         <v>608</v>
       </c>
       <c r="B608" s="1">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7623,7 +7612,7 @@
         <v>609</v>
       </c>
       <c r="B609" s="1">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7631,7 +7620,7 @@
         <v>610</v>
       </c>
       <c r="B610" s="1">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7639,7 +7628,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="1">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7647,7 +7636,7 @@
         <v>612</v>
       </c>
       <c r="B612" s="1">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7655,7 +7644,7 @@
         <v>613</v>
       </c>
       <c r="B613" s="1">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7663,7 +7652,7 @@
         <v>614</v>
       </c>
       <c r="B614" s="1">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7671,7 +7660,7 @@
         <v>615</v>
       </c>
       <c r="B615" s="1">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7679,7 +7668,7 @@
         <v>616</v>
       </c>
       <c r="B616" s="1">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7687,7 +7676,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7695,7 +7684,7 @@
         <v>618</v>
       </c>
       <c r="B618" s="1">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7703,7 +7692,7 @@
         <v>619</v>
       </c>
       <c r="B619" s="1">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7711,7 +7700,7 @@
         <v>620</v>
       </c>
       <c r="B620" s="1">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7719,7 +7708,7 @@
         <v>621</v>
       </c>
       <c r="B621" s="1">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7727,7 +7716,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="1">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7735,7 +7724,7 @@
         <v>623</v>
       </c>
       <c r="B623" s="1">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7743,7 +7732,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7751,7 +7740,7 @@
         <v>625</v>
       </c>
       <c r="B625" s="1">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7759,7 +7748,7 @@
         <v>626</v>
       </c>
       <c r="B626" s="1">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7767,7 +7756,7 @@
         <v>627</v>
       </c>
       <c r="B627" s="1">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7775,7 +7764,7 @@
         <v>628</v>
       </c>
       <c r="B628" s="1">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7783,7 +7772,7 @@
         <v>629</v>
       </c>
       <c r="B629" s="1">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7791,7 +7780,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7799,7 +7788,7 @@
         <v>631</v>
       </c>
       <c r="B631" s="1">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7807,7 +7796,7 @@
         <v>632</v>
       </c>
       <c r="B632" s="1">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7815,7 +7804,7 @@
         <v>633</v>
       </c>
       <c r="B633" s="1">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7823,7 +7812,7 @@
         <v>634</v>
       </c>
       <c r="B634" s="1">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7831,7 +7820,7 @@
         <v>635</v>
       </c>
       <c r="B635" s="1">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7839,7 +7828,7 @@
         <v>636</v>
       </c>
       <c r="B636" s="1">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7847,7 +7836,7 @@
         <v>637</v>
       </c>
       <c r="B637" s="1">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7855,7 +7844,7 @@
         <v>638</v>
       </c>
       <c r="B638" s="1">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7863,7 +7852,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7871,7 +7860,7 @@
         <v>640</v>
       </c>
       <c r="B640" s="1">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7879,7 +7868,7 @@
         <v>641</v>
       </c>
       <c r="B641" s="1">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7887,7 +7876,7 @@
         <v>642</v>
       </c>
       <c r="B642" s="1">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7895,7 +7884,7 @@
         <v>643</v>
       </c>
       <c r="B643" s="1">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7903,7 +7892,7 @@
         <v>644</v>
       </c>
       <c r="B644" s="1">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7911,7 +7900,7 @@
         <v>645</v>
       </c>
       <c r="B645" s="1">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7919,7 +7908,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7927,7 +7916,7 @@
         <v>647</v>
       </c>
       <c r="B647" s="1">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7935,7 +7924,7 @@
         <v>648</v>
       </c>
       <c r="B648" s="1">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,7 +7932,7 @@
         <v>649</v>
       </c>
       <c r="B649" s="1">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7951,7 +7940,7 @@
         <v>650</v>
       </c>
       <c r="B650" s="1">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7959,7 +7948,7 @@
         <v>651</v>
       </c>
       <c r="B651" s="1">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7967,7 +7956,7 @@
         <v>652</v>
       </c>
       <c r="B652" s="1">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7975,7 +7964,7 @@
         <v>653</v>
       </c>
       <c r="B653" s="1">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7983,7 +7972,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7991,7 +7980,7 @@
         <v>655</v>
       </c>
       <c r="B655" s="1">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7999,7 +7988,7 @@
         <v>656</v>
       </c>
       <c r="B656" s="1">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -8007,7 +7996,7 @@
         <v>657</v>
       </c>
       <c r="B657" s="1">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -8015,7 +8004,7 @@
         <v>658</v>
       </c>
       <c r="B658" s="1">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -8023,7 +8012,7 @@
         <v>659</v>
       </c>
       <c r="B659" s="1">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -8031,7 +8020,7 @@
         <v>660</v>
       </c>
       <c r="B660" s="1">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -8039,7 +8028,7 @@
         <v>661</v>
       </c>
       <c r="B661" s="1">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -8047,7 +8036,7 @@
         <v>662</v>
       </c>
       <c r="B662" s="1">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -8055,7 +8044,7 @@
         <v>663</v>
       </c>
       <c r="B663" s="1">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -8063,7 +8052,7 @@
         <v>664</v>
       </c>
       <c r="B664" s="1">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -8071,7 +8060,7 @@
         <v>665</v>
       </c>
       <c r="B665" s="1">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -8079,7 +8068,7 @@
         <v>666</v>
       </c>
       <c r="B666" s="1">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -8087,7 +8076,7 @@
         <v>667</v>
       </c>
       <c r="B667" s="1">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -8095,7 +8084,7 @@
         <v>668</v>
       </c>
       <c r="B668" s="1">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -8103,7 +8092,7 @@
         <v>669</v>
       </c>
       <c r="B669" s="1">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -8111,7 +8100,7 @@
         <v>670</v>
       </c>
       <c r="B670" s="1">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -8119,7 +8108,7 @@
         <v>671</v>
       </c>
       <c r="B671" s="1">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -8127,7 +8116,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -8135,7 +8124,7 @@
         <v>673</v>
       </c>
       <c r="B673" s="1">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8143,7 +8132,7 @@
         <v>674</v>
       </c>
       <c r="B674" s="1">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8151,7 +8140,7 @@
         <v>675</v>
       </c>
       <c r="B675" s="1">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8159,7 +8148,7 @@
         <v>676</v>
       </c>
       <c r="B676" s="1">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -8167,7 +8156,7 @@
         <v>677</v>
       </c>
       <c r="B677" s="1">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -8175,7 +8164,7 @@
         <v>678</v>
       </c>
       <c r="B678" s="1">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -8183,7 +8172,7 @@
         <v>679</v>
       </c>
       <c r="B679" s="1">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -8191,7 +8180,7 @@
         <v>680</v>
       </c>
       <c r="B680" s="1">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -8199,7 +8188,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -8207,7 +8196,7 @@
         <v>682</v>
       </c>
       <c r="B682" s="1">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -8215,7 +8204,7 @@
         <v>683</v>
       </c>
       <c r="B683" s="1">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -8223,7 +8212,7 @@
         <v>684</v>
       </c>
       <c r="B684" s="1">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -8231,7 +8220,7 @@
         <v>685</v>
       </c>
       <c r="B685" s="1">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -8239,7 +8228,7 @@
         <v>686</v>
       </c>
       <c r="B686" s="1">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -8247,7 +8236,7 @@
         <v>687</v>
       </c>
       <c r="B687" s="1">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -8255,7 +8244,7 @@
         <v>688</v>
       </c>
       <c r="B688" s="1">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -8263,7 +8252,7 @@
         <v>689</v>
       </c>
       <c r="B689" s="1">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -8271,7 +8260,7 @@
         <v>690</v>
       </c>
       <c r="B690" s="1">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -8279,7 +8268,7 @@
         <v>691</v>
       </c>
       <c r="B691" s="1">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -8287,7 +8276,7 @@
         <v>692</v>
       </c>
       <c r="B692" s="1">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -8295,7 +8284,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -8303,7 +8292,7 @@
         <v>694</v>
       </c>
       <c r="B694" s="1">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -8311,7 +8300,7 @@
         <v>695</v>
       </c>
       <c r="B695" s="1">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -8319,7 +8308,7 @@
         <v>696</v>
       </c>
       <c r="B696" s="1">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -8327,7 +8316,7 @@
         <v>697</v>
       </c>
       <c r="B697" s="1">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -8335,7 +8324,7 @@
         <v>698</v>
       </c>
       <c r="B698" s="1">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -8343,7 +8332,7 @@
         <v>699</v>
       </c>
       <c r="B699" s="1">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -8351,7 +8340,7 @@
         <v>700</v>
       </c>
       <c r="B700" s="1">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -8359,7 +8348,7 @@
         <v>701</v>
       </c>
       <c r="B701" s="1">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -8367,7 +8356,7 @@
         <v>702</v>
       </c>
       <c r="B702" s="1">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -8375,7 +8364,7 @@
         <v>703</v>
       </c>
       <c r="B703" s="1">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -8383,7 +8372,7 @@
         <v>704</v>
       </c>
       <c r="B704" s="1">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -8391,7 +8380,7 @@
         <v>705</v>
       </c>
       <c r="B705" s="1">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -8399,7 +8388,7 @@
         <v>706</v>
       </c>
       <c r="B706" s="1">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -8407,30 +8396,6 @@
         <v>707</v>
       </c>
       <c r="B707" s="1">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B708" s="1">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B709" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B710" s="1">
         <v>742</v>
       </c>
     </row>

--- a/List_Franchise_noChicken2.xlsx
+++ b/List_Franchise_noChicken2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$707</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$706</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,16 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="707">
   <si>
     <t>Search Query</t>
   </si>
   <si>
     <t>Store_ID_raw</t>
-  </si>
-  <si>
-    <t>투뿔등심</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>스폰티니</t>
@@ -2731,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B707"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:D4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2824,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2856,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2864,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2880,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2904,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2912,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2920,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2928,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2944,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2952,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2960,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2968,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +2976,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2984,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2992,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3000,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3008,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3016,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3024,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3032,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3048,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3056,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3064,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3072,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3080,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3088,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3096,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3104,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3112,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3120,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3128,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3136,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3144,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3152,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3160,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3168,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3176,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3184,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3192,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3200,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3208,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3216,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3224,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3232,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3240,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3248,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3256,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3264,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3272,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3280,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3288,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3296,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3304,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3312,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3320,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3328,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3336,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3344,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3352,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3360,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3368,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3376,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3384,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3392,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3400,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3408,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3416,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3424,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3432,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3440,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3448,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3456,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3464,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3472,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3480,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3488,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3496,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3504,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3512,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3520,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3528,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3544,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3552,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3560,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3568,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3576,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3584,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3592,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3600,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3608,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3616,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3624,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3632,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3640,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3648,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3656,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3664,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3672,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3680,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3688,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3696,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3704,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3712,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3720,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3728,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3736,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3744,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3752,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3760,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3768,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3776,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3784,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3792,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3800,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3808,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3816,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3824,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3832,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3840,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3848,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3856,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3864,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3872,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3880,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3888,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3896,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3904,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3912,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3920,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3928,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3936,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3944,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3952,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3960,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3968,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3976,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3984,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3992,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4000,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="1">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4008,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4016,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4024,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4032,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4040,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4048,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4056,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4064,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4072,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4080,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4088,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4096,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4104,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4112,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4120,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4128,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4136,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4144,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4152,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4160,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4168,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4176,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4184,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4192,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4200,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4208,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4216,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4224,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4232,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4240,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4248,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4256,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4264,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4272,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4280,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4288,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4296,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4304,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4312,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4320,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4328,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4336,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4344,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4352,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4360,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4368,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4376,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4384,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4392,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4400,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4408,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4416,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4424,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4432,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4440,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4448,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4456,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4464,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4472,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4480,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4488,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4496,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4504,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4512,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4520,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4528,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4536,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4544,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,7 +4552,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4560,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4568,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4576,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4584,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4592,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4600,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4608,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,7 +4616,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4624,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4632,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4640,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4648,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4656,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4664,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4672,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4680,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4692,7 +4688,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4696,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4704,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4712,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4720,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4728,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4736,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4748,7 +4744,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4752,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4764,7 +4760,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4768,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +4776,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,7 +4784,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4792,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4804,7 +4800,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4808,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4816,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4824,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4832,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +4840,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4848,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4856,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +4864,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4872,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,7 +4880,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4892,7 +4888,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4896,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4904,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4920,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4928,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4936,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4944,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4952,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,7 +4960,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4968,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,7 +4976,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +4984,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +4992,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5000,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5008,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5016,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5024,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5032,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5040,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5048,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5056,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5064,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5072,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5080,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,7 +5088,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5096,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5104,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5112,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5120,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5128,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,7 +5136,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5144,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +5152,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5160,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5168,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5176,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5188,7 +5184,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5192,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5204,7 +5200,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5208,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5216,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5224,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,7 +5232,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,7 +5240,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5252,7 +5248,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5260,7 +5256,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5268,7 +5264,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5276,7 +5272,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,7 +5280,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5292,7 +5288,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5296,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5308,7 +5304,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5316,7 +5312,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5324,7 +5320,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5332,7 +5328,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5336,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5344,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5352,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5364,7 +5360,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5368,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5376,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5388,7 +5384,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5396,7 +5392,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,7 +5400,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5412,7 +5408,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5420,7 +5416,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5428,7 +5424,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,7 +5432,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5440,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5452,7 +5448,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5460,7 +5456,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5468,7 +5464,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5472,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5484,7 +5480,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5492,7 +5488,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5500,7 +5496,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5508,7 +5504,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,7 +5512,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5524,7 +5520,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5532,7 +5528,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5540,7 +5536,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +5544,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,7 +5552,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5564,7 +5560,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5572,7 +5568,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5580,7 +5576,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5584,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5592,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,7 +5600,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5612,7 +5608,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,7 +5616,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5628,7 +5624,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,7 +5632,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5644,7 +5640,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5652,7 +5648,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5656,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5664,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5676,7 +5672,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5680,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5688,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5700,7 +5696,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5704,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5716,7 +5712,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5724,7 +5720,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5732,7 +5728,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5740,7 +5736,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5748,7 +5744,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5752,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5760,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5772,7 +5768,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5780,7 +5776,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5788,7 +5784,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5796,7 +5792,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5800,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5808,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5820,7 +5816,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5824,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5832,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5840,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5848,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5860,7 +5856,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5864,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5876,7 +5872,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5884,7 +5880,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5888,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5896,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5904,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +5912,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5920,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5932,7 +5928,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5940,7 +5936,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,7 +5944,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,7 +5952,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +5960,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +5968,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5976,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,7 +5984,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +5992,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,7 +6000,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -6012,7 +6008,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6020,7 +6016,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,7 +6024,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -6036,7 +6032,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -6044,7 +6040,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6052,7 +6048,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6056,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6068,7 +6064,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6072,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6080,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6092,7 +6088,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -6100,7 +6096,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -6108,7 +6104,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6116,7 +6112,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -6124,7 +6120,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,7 +6128,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,7 +6136,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6148,7 +6144,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6156,7 +6152,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6160,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6168,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6176,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6184,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6192,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6204,7 +6200,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6212,7 +6208,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6216,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6228,7 +6224,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6236,7 +6232,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6244,7 +6240,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6252,7 +6248,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6260,7 +6256,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,7 +6264,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6276,7 +6272,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6284,7 +6280,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6288,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6300,7 +6296,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6304,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6316,7 +6312,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6324,7 +6320,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6328,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6336,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +6344,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6352,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6360,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6372,7 +6368,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6380,7 +6376,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6388,7 +6384,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6396,7 +6392,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6400,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6408,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6420,7 +6416,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6424,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +6432,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +6440,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +6448,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6460,7 +6456,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +6464,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6472,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6480,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +6488,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,7 +6496,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6508,7 +6504,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6516,7 +6512,7 @@
         <v>472</v>
       </c>
       <c r="B472" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6524,7 +6520,7 @@
         <v>473</v>
       </c>
       <c r="B473" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6532,7 +6528,7 @@
         <v>474</v>
       </c>
       <c r="B474" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6536,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6544,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6552,7 @@
         <v>477</v>
       </c>
       <c r="B477" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6560,7 @@
         <v>478</v>
       </c>
       <c r="B478" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6568,7 @@
         <v>479</v>
       </c>
       <c r="B479" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6580,7 +6576,7 @@
         <v>480</v>
       </c>
       <c r="B480" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6588,7 +6584,7 @@
         <v>481</v>
       </c>
       <c r="B481" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6596,7 +6592,7 @@
         <v>482</v>
       </c>
       <c r="B482" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,7 +6600,7 @@
         <v>483</v>
       </c>
       <c r="B483" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6608,7 @@
         <v>484</v>
       </c>
       <c r="B484" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6616,7 @@
         <v>485</v>
       </c>
       <c r="B485" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,7 +6624,7 @@
         <v>486</v>
       </c>
       <c r="B486" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,7 +6632,7 @@
         <v>487</v>
       </c>
       <c r="B487" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6640,7 @@
         <v>488</v>
       </c>
       <c r="B488" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6652,7 +6648,7 @@
         <v>489</v>
       </c>
       <c r="B489" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6660,7 +6656,7 @@
         <v>490</v>
       </c>
       <c r="B490" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6664,7 @@
         <v>491</v>
       </c>
       <c r="B491" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,7 +6672,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6684,7 +6680,7 @@
         <v>493</v>
       </c>
       <c r="B493" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6692,7 +6688,7 @@
         <v>494</v>
       </c>
       <c r="B494" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6696,7 @@
         <v>495</v>
       </c>
       <c r="B495" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,7 +6704,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6712,7 @@
         <v>497</v>
       </c>
       <c r="B497" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,7 +6720,7 @@
         <v>498</v>
       </c>
       <c r="B498" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6732,7 +6728,7 @@
         <v>499</v>
       </c>
       <c r="B499" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6740,7 +6736,7 @@
         <v>500</v>
       </c>
       <c r="B500" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +6744,7 @@
         <v>501</v>
       </c>
       <c r="B501" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6756,7 +6752,7 @@
         <v>502</v>
       </c>
       <c r="B502" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6760,7 @@
         <v>503</v>
       </c>
       <c r="B503" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6768,7 @@
         <v>504</v>
       </c>
       <c r="B504" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6780,7 +6776,7 @@
         <v>505</v>
       </c>
       <c r="B505" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6784,7 @@
         <v>506</v>
       </c>
       <c r="B506" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6792,7 @@
         <v>507</v>
       </c>
       <c r="B507" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6800,7 @@
         <v>508</v>
       </c>
       <c r="B508" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6808,7 @@
         <v>509</v>
       </c>
       <c r="B509" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,7 +6816,7 @@
         <v>510</v>
       </c>
       <c r="B510" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6824,7 @@
         <v>511</v>
       </c>
       <c r="B511" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6832,7 @@
         <v>512</v>
       </c>
       <c r="B512" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6844,7 +6840,7 @@
         <v>513</v>
       </c>
       <c r="B513" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6848,7 @@
         <v>514</v>
       </c>
       <c r="B514" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6856,7 @@
         <v>515</v>
       </c>
       <c r="B515" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6868,7 +6864,7 @@
         <v>516</v>
       </c>
       <c r="B516" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,7 +6872,7 @@
         <v>517</v>
       </c>
       <c r="B517" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6884,7 +6880,7 @@
         <v>518</v>
       </c>
       <c r="B518" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6892,7 +6888,7 @@
         <v>519</v>
       </c>
       <c r="B519" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6896,7 @@
         <v>520</v>
       </c>
       <c r="B520" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6904,7 @@
         <v>521</v>
       </c>
       <c r="B521" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +6912,7 @@
         <v>522</v>
       </c>
       <c r="B522" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6920,7 @@
         <v>523</v>
       </c>
       <c r="B523" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6932,7 +6928,7 @@
         <v>524</v>
       </c>
       <c r="B524" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6936,7 @@
         <v>525</v>
       </c>
       <c r="B525" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6948,7 +6944,7 @@
         <v>526</v>
       </c>
       <c r="B526" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6956,7 +6952,7 @@
         <v>527</v>
       </c>
       <c r="B527" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6964,7 +6960,7 @@
         <v>528</v>
       </c>
       <c r="B528" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +6968,7 @@
         <v>529</v>
       </c>
       <c r="B529" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +6976,7 @@
         <v>530</v>
       </c>
       <c r="B530" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6984,7 @@
         <v>531</v>
       </c>
       <c r="B531" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6996,7 +6992,7 @@
         <v>532</v>
       </c>
       <c r="B532" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -7004,7 +7000,7 @@
         <v>533</v>
       </c>
       <c r="B533" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -7012,7 +7008,7 @@
         <v>534</v>
       </c>
       <c r="B534" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7020,7 +7016,7 @@
         <v>535</v>
       </c>
       <c r="B535" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -7028,7 +7024,7 @@
         <v>536</v>
       </c>
       <c r="B536" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,7 +7032,7 @@
         <v>537</v>
       </c>
       <c r="B537" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7040,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +7048,7 @@
         <v>539</v>
       </c>
       <c r="B539" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7056,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +7064,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7072,7 @@
         <v>542</v>
       </c>
       <c r="B542" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7080,7 @@
         <v>543</v>
       </c>
       <c r="B543" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7088,7 @@
         <v>544</v>
       </c>
       <c r="B544" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7096,7 @@
         <v>545</v>
       </c>
       <c r="B545" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +7104,7 @@
         <v>546</v>
       </c>
       <c r="B546" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7112,7 @@
         <v>547</v>
       </c>
       <c r="B547" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +7120,7 @@
         <v>548</v>
       </c>
       <c r="B548" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7128,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7140,7 +7136,7 @@
         <v>550</v>
       </c>
       <c r="B550" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7144,7 @@
         <v>551</v>
       </c>
       <c r="B551" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7152,7 @@
         <v>552</v>
       </c>
       <c r="B552" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7160,7 @@
         <v>553</v>
       </c>
       <c r="B553" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +7168,7 @@
         <v>554</v>
       </c>
       <c r="B554" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7180,7 +7176,7 @@
         <v>555</v>
       </c>
       <c r="B555" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +7184,7 @@
         <v>556</v>
       </c>
       <c r="B556" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +7192,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7200,7 @@
         <v>558</v>
       </c>
       <c r="B558" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +7208,7 @@
         <v>559</v>
       </c>
       <c r="B559" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7216,7 @@
         <v>560</v>
       </c>
       <c r="B560" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +7224,7 @@
         <v>561</v>
       </c>
       <c r="B561" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7232,7 @@
         <v>562</v>
       </c>
       <c r="B562" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7240,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,7 +7248,7 @@
         <v>564</v>
       </c>
       <c r="B564" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7256,7 @@
         <v>565</v>
       </c>
       <c r="B565" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7264,7 @@
         <v>566</v>
       </c>
       <c r="B566" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7272,7 @@
         <v>567</v>
       </c>
       <c r="B567" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7280,7 @@
         <v>568</v>
       </c>
       <c r="B568" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +7288,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7296,7 @@
         <v>570</v>
       </c>
       <c r="B570" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7304,7 @@
         <v>571</v>
       </c>
       <c r="B571" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7312,7 @@
         <v>572</v>
       </c>
       <c r="B572" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7320,7 @@
         <v>573</v>
       </c>
       <c r="B573" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7328,7 @@
         <v>574</v>
       </c>
       <c r="B574" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7336,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7344,7 @@
         <v>576</v>
       </c>
       <c r="B576" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7352,7 @@
         <v>577</v>
       </c>
       <c r="B577" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7360,7 @@
         <v>578</v>
       </c>
       <c r="B578" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7368,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,7 +7376,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7388,7 +7384,7 @@
         <v>581</v>
       </c>
       <c r="B581" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7392,7 @@
         <v>582</v>
       </c>
       <c r="B582" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,7 +7400,7 @@
         <v>583</v>
       </c>
       <c r="B583" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7408,7 @@
         <v>584</v>
       </c>
       <c r="B584" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7416,7 @@
         <v>585</v>
       </c>
       <c r="B585" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7428,7 +7424,7 @@
         <v>586</v>
       </c>
       <c r="B586" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7432,7 @@
         <v>587</v>
       </c>
       <c r="B587" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7440,7 @@
         <v>588</v>
       </c>
       <c r="B588" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7452,7 +7448,7 @@
         <v>589</v>
       </c>
       <c r="B589" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7456,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7468,7 +7464,7 @@
         <v>591</v>
       </c>
       <c r="B591" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,7 +7472,7 @@
         <v>592</v>
       </c>
       <c r="B592" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7480,7 @@
         <v>593</v>
       </c>
       <c r="B593" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7492,7 +7488,7 @@
         <v>594</v>
       </c>
       <c r="B594" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7496,7 @@
         <v>595</v>
       </c>
       <c r="B595" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7504,7 @@
         <v>596</v>
       </c>
       <c r="B596" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7512,7 @@
         <v>597</v>
       </c>
       <c r="B597" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7520,7 @@
         <v>598</v>
       </c>
       <c r="B598" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7528,7 @@
         <v>599</v>
       </c>
       <c r="B599" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7536,7 @@
         <v>600</v>
       </c>
       <c r="B600" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,7 +7544,7 @@
         <v>601</v>
       </c>
       <c r="B601" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7552,7 @@
         <v>602</v>
       </c>
       <c r="B602" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7560,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7568,7 @@
         <v>604</v>
       </c>
       <c r="B604" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7576,7 @@
         <v>605</v>
       </c>
       <c r="B605" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7584,7 @@
         <v>606</v>
       </c>
       <c r="B606" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7592,7 @@
         <v>607</v>
       </c>
       <c r="B607" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7600,7 @@
         <v>608</v>
       </c>
       <c r="B608" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7608,7 @@
         <v>609</v>
       </c>
       <c r="B609" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7616,7 @@
         <v>610</v>
       </c>
       <c r="B610" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7624,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7632,7 @@
         <v>612</v>
       </c>
       <c r="B612" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7644,7 +7640,7 @@
         <v>613</v>
       </c>
       <c r="B613" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7648,7 @@
         <v>614</v>
       </c>
       <c r="B614" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7656,7 @@
         <v>615</v>
       </c>
       <c r="B615" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7664,7 @@
         <v>616</v>
       </c>
       <c r="B616" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7672,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7684,7 +7680,7 @@
         <v>618</v>
       </c>
       <c r="B618" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,7 +7688,7 @@
         <v>619</v>
       </c>
       <c r="B619" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7696,7 @@
         <v>620</v>
       </c>
       <c r="B620" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7704,7 @@
         <v>621</v>
       </c>
       <c r="B621" s="1">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7716,7 +7712,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7724,7 +7720,7 @@
         <v>623</v>
       </c>
       <c r="B623" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7728,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7740,7 +7736,7 @@
         <v>625</v>
       </c>
       <c r="B625" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7748,7 +7744,7 @@
         <v>626</v>
       </c>
       <c r="B626" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,7 +7752,7 @@
         <v>627</v>
       </c>
       <c r="B627" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,7 +7760,7 @@
         <v>628</v>
       </c>
       <c r="B628" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,7 +7768,7 @@
         <v>629</v>
       </c>
       <c r="B629" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7776,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7788,7 +7784,7 @@
         <v>631</v>
       </c>
       <c r="B631" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7796,7 +7792,7 @@
         <v>632</v>
       </c>
       <c r="B632" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7800,7 @@
         <v>633</v>
       </c>
       <c r="B633" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7812,7 +7808,7 @@
         <v>634</v>
       </c>
       <c r="B634" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7820,7 +7816,7 @@
         <v>635</v>
       </c>
       <c r="B635" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7828,7 +7824,7 @@
         <v>636</v>
       </c>
       <c r="B636" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7836,7 +7832,7 @@
         <v>637</v>
       </c>
       <c r="B637" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7844,7 +7840,7 @@
         <v>638</v>
       </c>
       <c r="B638" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,7 +7848,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7860,7 +7856,7 @@
         <v>640</v>
       </c>
       <c r="B640" s="1">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7868,7 +7864,7 @@
         <v>641</v>
       </c>
       <c r="B641" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7876,7 +7872,7 @@
         <v>642</v>
       </c>
       <c r="B642" s="1">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7884,7 +7880,7 @@
         <v>643</v>
       </c>
       <c r="B643" s="1">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7892,7 +7888,7 @@
         <v>644</v>
       </c>
       <c r="B644" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7900,7 +7896,7 @@
         <v>645</v>
       </c>
       <c r="B645" s="1">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7908,7 +7904,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7912,7 @@
         <v>647</v>
       </c>
       <c r="B647" s="1">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7924,7 +7920,7 @@
         <v>648</v>
       </c>
       <c r="B648" s="1">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7932,7 +7928,7 @@
         <v>649</v>
       </c>
       <c r="B649" s="1">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7940,7 +7936,7 @@
         <v>650</v>
       </c>
       <c r="B650" s="1">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7948,7 +7944,7 @@
         <v>651</v>
       </c>
       <c r="B651" s="1">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7956,7 +7952,7 @@
         <v>652</v>
       </c>
       <c r="B652" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7964,7 +7960,7 @@
         <v>653</v>
       </c>
       <c r="B653" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7972,7 +7968,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7980,7 +7976,7 @@
         <v>655</v>
       </c>
       <c r="B655" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +7984,7 @@
         <v>656</v>
       </c>
       <c r="B656" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7996,7 +7992,7 @@
         <v>657</v>
       </c>
       <c r="B657" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -8004,7 +8000,7 @@
         <v>658</v>
       </c>
       <c r="B658" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -8012,7 +8008,7 @@
         <v>659</v>
       </c>
       <c r="B659" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -8020,7 +8016,7 @@
         <v>660</v>
       </c>
       <c r="B660" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -8028,7 +8024,7 @@
         <v>661</v>
       </c>
       <c r="B661" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -8036,7 +8032,7 @@
         <v>662</v>
       </c>
       <c r="B662" s="1">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -8044,7 +8040,7 @@
         <v>663</v>
       </c>
       <c r="B663" s="1">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -8052,7 +8048,7 @@
         <v>664</v>
       </c>
       <c r="B664" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -8060,7 +8056,7 @@
         <v>665</v>
       </c>
       <c r="B665" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -8068,7 +8064,7 @@
         <v>666</v>
       </c>
       <c r="B666" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -8076,7 +8072,7 @@
         <v>667</v>
       </c>
       <c r="B667" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -8084,7 +8080,7 @@
         <v>668</v>
       </c>
       <c r="B668" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -8092,7 +8088,7 @@
         <v>669</v>
       </c>
       <c r="B669" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -8100,7 +8096,7 @@
         <v>670</v>
       </c>
       <c r="B670" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -8108,7 +8104,7 @@
         <v>671</v>
       </c>
       <c r="B671" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -8116,7 +8112,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -8124,7 +8120,7 @@
         <v>673</v>
       </c>
       <c r="B673" s="1">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8132,7 +8128,7 @@
         <v>674</v>
       </c>
       <c r="B674" s="1">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8140,7 +8136,7 @@
         <v>675</v>
       </c>
       <c r="B675" s="1">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8148,7 +8144,7 @@
         <v>676</v>
       </c>
       <c r="B676" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -8156,7 +8152,7 @@
         <v>677</v>
       </c>
       <c r="B677" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -8164,7 +8160,7 @@
         <v>678</v>
       </c>
       <c r="B678" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -8172,7 +8168,7 @@
         <v>679</v>
       </c>
       <c r="B679" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -8180,7 +8176,7 @@
         <v>680</v>
       </c>
       <c r="B680" s="1">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -8188,7 +8184,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -8196,7 +8192,7 @@
         <v>682</v>
       </c>
       <c r="B682" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8200,7 @@
         <v>683</v>
       </c>
       <c r="B683" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -8212,7 +8208,7 @@
         <v>684</v>
       </c>
       <c r="B684" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -8220,7 +8216,7 @@
         <v>685</v>
       </c>
       <c r="B685" s="1">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,7 +8224,7 @@
         <v>686</v>
       </c>
       <c r="B686" s="1">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -8236,7 +8232,7 @@
         <v>687</v>
       </c>
       <c r="B687" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -8244,7 +8240,7 @@
         <v>688</v>
       </c>
       <c r="B688" s="1">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -8252,7 +8248,7 @@
         <v>689</v>
       </c>
       <c r="B689" s="1">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -8260,7 +8256,7 @@
         <v>690</v>
       </c>
       <c r="B690" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -8268,7 +8264,7 @@
         <v>691</v>
       </c>
       <c r="B691" s="1">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -8276,7 +8272,7 @@
         <v>692</v>
       </c>
       <c r="B692" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -8284,7 +8280,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -8292,7 +8288,7 @@
         <v>694</v>
       </c>
       <c r="B694" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,7 +8296,7 @@
         <v>695</v>
       </c>
       <c r="B695" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -8308,7 +8304,7 @@
         <v>696</v>
       </c>
       <c r="B696" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -8316,7 +8312,7 @@
         <v>697</v>
       </c>
       <c r="B697" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -8324,7 +8320,7 @@
         <v>698</v>
       </c>
       <c r="B698" s="1">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -8332,7 +8328,7 @@
         <v>699</v>
       </c>
       <c r="B699" s="1">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -8340,7 +8336,7 @@
         <v>700</v>
       </c>
       <c r="B700" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -8348,7 +8344,7 @@
         <v>701</v>
       </c>
       <c r="B701" s="1">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -8356,7 +8352,7 @@
         <v>702</v>
       </c>
       <c r="B702" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -8364,7 +8360,7 @@
         <v>703</v>
       </c>
       <c r="B703" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -8372,7 +8368,7 @@
         <v>704</v>
       </c>
       <c r="B704" s="1">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -8380,7 +8376,7 @@
         <v>705</v>
       </c>
       <c r="B705" s="1">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -8388,14 +8384,6 @@
         <v>706</v>
       </c>
       <c r="B706" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B707" s="1">
         <v>742</v>
       </c>
     </row>

--- a/List_Franchise_noChicken2.xlsx
+++ b/List_Franchise_noChicken2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$706</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$705</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,16 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
   <si>
     <t>Search Query</t>
   </si>
   <si>
     <t>Store_ID_raw</t>
-  </si>
-  <si>
-    <t>스폰티니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>오므토토마토</t>
@@ -2727,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2796,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2820,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2884,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +2900,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +2908,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2916,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +2924,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +2940,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +2948,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +2956,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +2964,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +2980,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +2996,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3004,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3012,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3020,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3028,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3036,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3044,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3052,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3060,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3068,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3084,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3092,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3100,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3108,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3116,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3124,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3132,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3140,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3148,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3156,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3164,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3172,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3180,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3188,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3196,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3204,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,7 +3212,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3220,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,7 +3228,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +3236,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3244,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3252,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3264,7 +3260,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,7 +3268,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3276,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3284,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3296,7 +3292,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3304,7 +3300,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3308,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,7 +3316,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,7 +3324,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3332,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3340,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3360,7 +3356,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3368,7 +3364,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3376,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3384,7 +3380,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3388,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3400,7 +3396,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3404,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3416,7 +3412,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +3420,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,7 +3428,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3440,7 +3436,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +3444,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3456,7 +3452,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +3460,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,7 +3468,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3476,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +3484,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +3492,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +3500,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +3508,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +3516,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +3524,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +3532,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3544,7 +3540,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +3548,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +3556,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +3564,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3576,7 +3572,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3584,7 +3580,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3592,7 +3588,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3600,7 +3596,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3608,7 +3604,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3616,7 +3612,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3620,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3628,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,7 +3636,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3648,7 +3644,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3656,7 +3652,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3660,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3672,7 +3668,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3680,7 +3676,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3688,7 +3684,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3696,7 +3692,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3704,7 +3700,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3712,7 +3708,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3720,7 +3716,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3728,7 +3724,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3736,7 +3732,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,7 +3740,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3752,7 +3748,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3760,7 +3756,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3768,7 +3764,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3772,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +3780,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +3788,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,7 +3796,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3808,7 +3804,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,7 +3812,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +3820,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,7 +3828,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +3836,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,7 +3844,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +3852,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3864,7 +3860,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3872,7 +3868,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3880,7 +3876,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3888,7 +3884,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3896,7 +3892,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3904,7 +3900,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3912,7 +3908,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3920,7 +3916,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +3924,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +3932,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3940,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,7 +3948,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +3956,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3968,7 +3964,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3976,7 +3972,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +3980,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3992,7 +3988,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +3996,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4008,7 +4004,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4016,7 +4012,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4024,7 +4020,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4032,7 +4028,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4040,7 +4036,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4048,7 +4044,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4056,7 +4052,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4064,7 +4060,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4072,7 +4068,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4080,7 +4076,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,7 +4084,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4096,7 +4092,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +4100,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,7 +4108,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4116,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4124,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4136,7 +4132,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4140,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,7 +4148,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4160,7 +4156,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4168,7 +4164,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4172,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,7 +4180,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4192,7 +4188,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +4196,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4208,7 +4204,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4216,7 +4212,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4224,7 +4220,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4228,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,7 +4236,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4244,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4256,7 +4252,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4260,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4268,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +4276,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +4284,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4296,7 +4292,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,7 +4300,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4312,7 +4308,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4316,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4328,7 +4324,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,7 +4332,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +4340,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,7 +4348,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4360,7 +4356,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,7 +4364,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4376,7 +4372,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,7 +4380,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,7 +4388,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,7 +4396,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4408,7 +4404,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,7 +4412,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4424,7 +4420,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4432,7 +4428,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4440,7 +4436,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4448,7 +4444,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4456,7 +4452,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4460,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,7 +4468,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,7 +4476,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4484,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4492,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4500,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4512,7 +4508,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,7 +4516,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4528,7 +4524,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4532,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4540,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,7 +4548,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4560,7 +4556,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4568,7 +4564,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4572,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4580,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4592,7 +4588,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,7 +4596,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4604,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4616,7 +4612,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4624,7 +4620,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4628,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4640,7 +4636,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4648,7 +4644,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4656,7 +4652,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4664,7 +4660,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4672,7 +4668,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4680,7 +4676,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4688,7 +4684,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4696,7 +4692,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4700,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4712,7 +4708,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4720,7 +4716,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4728,7 +4724,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4736,7 +4732,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4744,7 +4740,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4752,7 +4748,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4760,7 +4756,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4768,7 +4764,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4772,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4780,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4788,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,7 +4796,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4808,7 +4804,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,7 +4812,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,7 +4820,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4832,7 +4828,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4840,7 +4836,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4844,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4856,7 +4852,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4860,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4872,7 +4868,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4880,7 +4876,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4888,7 +4884,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4892,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,7 +4900,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4912,7 +4908,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4920,7 +4916,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4928,7 +4924,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4932,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4944,7 +4940,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4952,7 +4948,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4960,7 +4956,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4968,7 +4964,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4976,7 +4972,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4984,7 +4980,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,7 +4988,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,7 +4996,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5004,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5012,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5020,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5028,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5036,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5044,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5052,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5060,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5068,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -5080,7 +5076,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -5088,7 +5084,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5092,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5104,7 +5100,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -5112,7 +5108,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -5120,7 +5116,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5124,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5132,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5140,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5148,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5160,7 +5156,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5168,7 +5164,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5172,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5180,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5188,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5200,7 +5196,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5208,7 +5204,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,7 +5212,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5224,7 +5220,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5232,7 +5228,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5240,7 +5236,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5248,7 +5244,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5256,7 +5252,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5260,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5272,7 +5268,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5280,7 +5276,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5288,7 +5284,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5292,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5304,7 +5300,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5312,7 +5308,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5316,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5328,7 +5324,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5336,7 +5332,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5344,7 +5340,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5352,7 +5348,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5360,7 +5356,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5368,7 +5364,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5376,7 +5372,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5384,7 +5380,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5392,7 +5388,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5400,7 +5396,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5408,7 +5404,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5416,7 +5412,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5424,7 +5420,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5432,7 +5428,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5440,7 +5436,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5448,7 +5444,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5456,7 +5452,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5464,7 +5460,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5472,7 +5468,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5480,7 +5476,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5484,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5492,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5504,7 +5500,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +5508,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5520,7 +5516,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5528,7 +5524,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5536,7 +5532,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5544,7 +5540,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5548,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5556,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5564,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5576,7 +5572,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5580,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,7 +5588,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5596,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,7 +5604,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,7 +5612,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5620,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5628,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5640,7 +5636,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5648,7 +5644,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5656,7 +5652,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5664,7 +5660,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5672,7 +5668,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5680,7 +5676,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5688,7 +5684,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5696,7 +5692,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5704,7 +5700,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5712,7 +5708,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5720,7 +5716,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5728,7 +5724,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5736,7 +5732,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5744,7 +5740,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5752,7 +5748,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5760,7 +5756,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5768,7 +5764,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5776,7 +5772,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5784,7 +5780,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5792,7 +5788,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5800,7 +5796,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5808,7 +5804,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5816,7 +5812,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5824,7 +5820,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5832,7 +5828,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5840,7 +5836,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5848,7 +5844,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5856,7 +5852,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5864,7 +5860,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5872,7 +5868,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5880,7 +5876,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5888,7 +5884,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5896,7 +5892,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5904,7 +5900,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5912,7 +5908,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5920,7 +5916,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5928,7 +5924,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,7 +5932,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5944,7 +5940,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5952,7 +5948,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5960,7 +5956,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5968,7 +5964,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5976,7 +5972,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5984,7 +5980,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,7 +5988,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -6000,7 +5996,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -6008,7 +6004,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6016,7 +6012,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -6024,7 +6020,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -6032,7 +6028,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -6040,7 +6036,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6048,7 +6044,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6056,7 +6052,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,7 +6060,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -6072,7 +6068,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,7 +6076,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,7 +6084,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -6096,7 +6092,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -6104,7 +6100,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6112,7 +6108,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -6120,7 +6116,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6128,7 +6124,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6132,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6144,7 +6140,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,7 +6148,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6160,7 +6156,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6168,7 +6164,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6176,7 +6172,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,7 +6180,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6192,7 +6188,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6200,7 +6196,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6208,7 +6204,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6216,7 +6212,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6224,7 +6220,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6232,7 +6228,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6240,7 +6236,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6248,7 +6244,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,7 +6252,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6264,7 +6260,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6272,7 +6268,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6280,7 +6276,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6288,7 +6284,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6292,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,7 +6300,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,7 +6308,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6320,7 +6316,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,7 +6324,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6336,7 +6332,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,7 +6340,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6352,7 +6348,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6360,7 +6356,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6368,7 +6364,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6376,7 +6372,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6384,7 +6380,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6392,7 +6388,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6400,7 +6396,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6408,7 +6404,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,7 +6412,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6424,7 +6420,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6432,7 +6428,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6440,7 +6436,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6448,7 +6444,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6456,7 +6452,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6464,7 +6460,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6472,7 +6468,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6480,7 +6476,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6488,7 +6484,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6496,7 +6492,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6504,7 +6500,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6508,7 @@
         <v>472</v>
       </c>
       <c r="B472" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6520,7 +6516,7 @@
         <v>473</v>
       </c>
       <c r="B473" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6528,7 +6524,7 @@
         <v>474</v>
       </c>
       <c r="B474" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6536,7 +6532,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6544,7 +6540,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6552,7 +6548,7 @@
         <v>477</v>
       </c>
       <c r="B477" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6560,7 +6556,7 @@
         <v>478</v>
       </c>
       <c r="B478" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6568,7 +6564,7 @@
         <v>479</v>
       </c>
       <c r="B479" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6576,7 +6572,7 @@
         <v>480</v>
       </c>
       <c r="B480" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6584,7 +6580,7 @@
         <v>481</v>
       </c>
       <c r="B481" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6592,7 +6588,7 @@
         <v>482</v>
       </c>
       <c r="B482" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6600,7 +6596,7 @@
         <v>483</v>
       </c>
       <c r="B483" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6608,7 +6604,7 @@
         <v>484</v>
       </c>
       <c r="B484" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,7 +6612,7 @@
         <v>485</v>
       </c>
       <c r="B485" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6624,7 +6620,7 @@
         <v>486</v>
       </c>
       <c r="B486" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6632,7 +6628,7 @@
         <v>487</v>
       </c>
       <c r="B487" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,7 +6636,7 @@
         <v>488</v>
       </c>
       <c r="B488" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6648,7 +6644,7 @@
         <v>489</v>
       </c>
       <c r="B489" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6652,7 @@
         <v>490</v>
       </c>
       <c r="B490" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6664,7 +6660,7 @@
         <v>491</v>
       </c>
       <c r="B491" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6672,7 +6668,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6680,7 +6676,7 @@
         <v>493</v>
       </c>
       <c r="B493" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6688,7 +6684,7 @@
         <v>494</v>
       </c>
       <c r="B494" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6696,7 +6692,7 @@
         <v>495</v>
       </c>
       <c r="B495" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6704,7 +6700,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6712,7 +6708,7 @@
         <v>497</v>
       </c>
       <c r="B497" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6720,7 +6716,7 @@
         <v>498</v>
       </c>
       <c r="B498" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6728,7 +6724,7 @@
         <v>499</v>
       </c>
       <c r="B499" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,7 +6732,7 @@
         <v>500</v>
       </c>
       <c r="B500" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6744,7 +6740,7 @@
         <v>501</v>
       </c>
       <c r="B501" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6752,7 +6748,7 @@
         <v>502</v>
       </c>
       <c r="B502" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6760,7 +6756,7 @@
         <v>503</v>
       </c>
       <c r="B503" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6768,7 +6764,7 @@
         <v>504</v>
       </c>
       <c r="B504" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6776,7 +6772,7 @@
         <v>505</v>
       </c>
       <c r="B505" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6784,7 +6780,7 @@
         <v>506</v>
       </c>
       <c r="B506" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,7 +6788,7 @@
         <v>507</v>
       </c>
       <c r="B507" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6800,7 +6796,7 @@
         <v>508</v>
       </c>
       <c r="B508" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6808,7 +6804,7 @@
         <v>509</v>
       </c>
       <c r="B509" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6816,7 +6812,7 @@
         <v>510</v>
       </c>
       <c r="B510" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6824,7 +6820,7 @@
         <v>511</v>
       </c>
       <c r="B511" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6832,7 +6828,7 @@
         <v>512</v>
       </c>
       <c r="B512" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6840,7 +6836,7 @@
         <v>513</v>
       </c>
       <c r="B513" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6848,7 +6844,7 @@
         <v>514</v>
       </c>
       <c r="B514" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6856,7 +6852,7 @@
         <v>515</v>
       </c>
       <c r="B515" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6864,7 +6860,7 @@
         <v>516</v>
       </c>
       <c r="B516" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,7 +6868,7 @@
         <v>517</v>
       </c>
       <c r="B517" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +6876,7 @@
         <v>518</v>
       </c>
       <c r="B518" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6888,7 +6884,7 @@
         <v>519</v>
       </c>
       <c r="B519" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6896,7 +6892,7 @@
         <v>520</v>
       </c>
       <c r="B520" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6904,7 +6900,7 @@
         <v>521</v>
       </c>
       <c r="B521" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6912,7 +6908,7 @@
         <v>522</v>
       </c>
       <c r="B522" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6920,7 +6916,7 @@
         <v>523</v>
       </c>
       <c r="B523" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6928,7 +6924,7 @@
         <v>524</v>
       </c>
       <c r="B524" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6936,7 +6932,7 @@
         <v>525</v>
       </c>
       <c r="B525" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6944,7 +6940,7 @@
         <v>526</v>
       </c>
       <c r="B526" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,7 +6948,7 @@
         <v>527</v>
       </c>
       <c r="B527" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6960,7 +6956,7 @@
         <v>528</v>
       </c>
       <c r="B528" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6968,7 +6964,7 @@
         <v>529</v>
       </c>
       <c r="B529" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6976,7 +6972,7 @@
         <v>530</v>
       </c>
       <c r="B530" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6984,7 +6980,7 @@
         <v>531</v>
       </c>
       <c r="B531" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6992,7 +6988,7 @@
         <v>532</v>
       </c>
       <c r="B532" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -7000,7 +6996,7 @@
         <v>533</v>
       </c>
       <c r="B533" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -7008,7 +7004,7 @@
         <v>534</v>
       </c>
       <c r="B534" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7016,7 +7012,7 @@
         <v>535</v>
       </c>
       <c r="B535" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7020,7 @@
         <v>536</v>
       </c>
       <c r="B536" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -7032,7 +7028,7 @@
         <v>537</v>
       </c>
       <c r="B537" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -7040,7 +7036,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -7048,7 +7044,7 @@
         <v>539</v>
       </c>
       <c r="B539" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7056,7 +7052,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -7064,7 +7060,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -7072,7 +7068,7 @@
         <v>542</v>
       </c>
       <c r="B542" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -7080,7 +7076,7 @@
         <v>543</v>
       </c>
       <c r="B543" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7088,7 +7084,7 @@
         <v>544</v>
       </c>
       <c r="B544" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7092,7 @@
         <v>545</v>
       </c>
       <c r="B545" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7104,7 +7100,7 @@
         <v>546</v>
       </c>
       <c r="B546" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -7112,7 +7108,7 @@
         <v>547</v>
       </c>
       <c r="B547" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7120,7 +7116,7 @@
         <v>548</v>
       </c>
       <c r="B548" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7128,7 +7124,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7136,7 +7132,7 @@
         <v>550</v>
       </c>
       <c r="B550" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7144,7 +7140,7 @@
         <v>551</v>
       </c>
       <c r="B551" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7152,7 +7148,7 @@
         <v>552</v>
       </c>
       <c r="B552" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7160,7 +7156,7 @@
         <v>553</v>
       </c>
       <c r="B553" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7168,7 +7164,7 @@
         <v>554</v>
       </c>
       <c r="B554" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7176,7 +7172,7 @@
         <v>555</v>
       </c>
       <c r="B555" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7184,7 +7180,7 @@
         <v>556</v>
       </c>
       <c r="B556" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7192,7 +7188,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7200,7 +7196,7 @@
         <v>558</v>
       </c>
       <c r="B558" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7208,7 +7204,7 @@
         <v>559</v>
       </c>
       <c r="B559" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7216,7 +7212,7 @@
         <v>560</v>
       </c>
       <c r="B560" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7224,7 +7220,7 @@
         <v>561</v>
       </c>
       <c r="B561" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7228,7 @@
         <v>562</v>
       </c>
       <c r="B562" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7240,7 +7236,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7248,7 +7244,7 @@
         <v>564</v>
       </c>
       <c r="B564" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7256,7 +7252,7 @@
         <v>565</v>
       </c>
       <c r="B565" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7264,7 +7260,7 @@
         <v>566</v>
       </c>
       <c r="B566" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7272,7 +7268,7 @@
         <v>567</v>
       </c>
       <c r="B567" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7280,7 +7276,7 @@
         <v>568</v>
       </c>
       <c r="B568" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7288,7 +7284,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7296,7 +7292,7 @@
         <v>570</v>
       </c>
       <c r="B570" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7300,7 @@
         <v>571</v>
       </c>
       <c r="B571" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7312,7 +7308,7 @@
         <v>572</v>
       </c>
       <c r="B572" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7320,7 +7316,7 @@
         <v>573</v>
       </c>
       <c r="B573" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7328,7 +7324,7 @@
         <v>574</v>
       </c>
       <c r="B574" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +7332,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7344,7 +7340,7 @@
         <v>576</v>
       </c>
       <c r="B576" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7352,7 +7348,7 @@
         <v>577</v>
       </c>
       <c r="B577" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7360,7 +7356,7 @@
         <v>578</v>
       </c>
       <c r="B578" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7368,7 +7364,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7372,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7384,7 +7380,7 @@
         <v>581</v>
       </c>
       <c r="B581" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7392,7 +7388,7 @@
         <v>582</v>
       </c>
       <c r="B582" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7400,7 +7396,7 @@
         <v>583</v>
       </c>
       <c r="B583" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7408,7 +7404,7 @@
         <v>584</v>
       </c>
       <c r="B584" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7416,7 +7412,7 @@
         <v>585</v>
       </c>
       <c r="B585" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7424,7 +7420,7 @@
         <v>586</v>
       </c>
       <c r="B586" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7432,7 +7428,7 @@
         <v>587</v>
       </c>
       <c r="B587" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7440,7 +7436,7 @@
         <v>588</v>
       </c>
       <c r="B588" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7448,7 +7444,7 @@
         <v>589</v>
       </c>
       <c r="B589" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7456,7 +7452,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7464,7 +7460,7 @@
         <v>591</v>
       </c>
       <c r="B591" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7472,7 +7468,7 @@
         <v>592</v>
       </c>
       <c r="B592" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7480,7 +7476,7 @@
         <v>593</v>
       </c>
       <c r="B593" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7488,7 +7484,7 @@
         <v>594</v>
       </c>
       <c r="B594" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7496,7 +7492,7 @@
         <v>595</v>
       </c>
       <c r="B595" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7504,7 +7500,7 @@
         <v>596</v>
       </c>
       <c r="B596" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7512,7 +7508,7 @@
         <v>597</v>
       </c>
       <c r="B597" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,7 +7516,7 @@
         <v>598</v>
       </c>
       <c r="B598" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7528,7 +7524,7 @@
         <v>599</v>
       </c>
       <c r="B599" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7536,7 +7532,7 @@
         <v>600</v>
       </c>
       <c r="B600" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7544,7 +7540,7 @@
         <v>601</v>
       </c>
       <c r="B601" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7552,7 +7548,7 @@
         <v>602</v>
       </c>
       <c r="B602" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7560,7 +7556,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7568,7 +7564,7 @@
         <v>604</v>
       </c>
       <c r="B604" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7576,7 +7572,7 @@
         <v>605</v>
       </c>
       <c r="B605" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7584,7 +7580,7 @@
         <v>606</v>
       </c>
       <c r="B606" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7592,7 +7588,7 @@
         <v>607</v>
       </c>
       <c r="B607" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7600,7 +7596,7 @@
         <v>608</v>
       </c>
       <c r="B608" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7608,7 +7604,7 @@
         <v>609</v>
       </c>
       <c r="B609" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7616,7 +7612,7 @@
         <v>610</v>
       </c>
       <c r="B610" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7624,7 +7620,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7632,7 +7628,7 @@
         <v>612</v>
       </c>
       <c r="B612" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7640,7 +7636,7 @@
         <v>613</v>
       </c>
       <c r="B613" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7648,7 +7644,7 @@
         <v>614</v>
       </c>
       <c r="B614" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7656,7 +7652,7 @@
         <v>615</v>
       </c>
       <c r="B615" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7664,7 +7660,7 @@
         <v>616</v>
       </c>
       <c r="B616" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7672,7 +7668,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7680,7 +7676,7 @@
         <v>618</v>
       </c>
       <c r="B618" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7688,7 +7684,7 @@
         <v>619</v>
       </c>
       <c r="B619" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7696,7 +7692,7 @@
         <v>620</v>
       </c>
       <c r="B620" s="1">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7704,7 +7700,7 @@
         <v>621</v>
       </c>
       <c r="B621" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7712,7 +7708,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7720,7 +7716,7 @@
         <v>623</v>
       </c>
       <c r="B623" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7728,7 +7724,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7736,7 +7732,7 @@
         <v>625</v>
       </c>
       <c r="B625" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7744,7 +7740,7 @@
         <v>626</v>
       </c>
       <c r="B626" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7752,7 +7748,7 @@
         <v>627</v>
       </c>
       <c r="B627" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7760,7 +7756,7 @@
         <v>628</v>
       </c>
       <c r="B628" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7768,7 +7764,7 @@
         <v>629</v>
       </c>
       <c r="B629" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7776,7 +7772,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7784,7 +7780,7 @@
         <v>631</v>
       </c>
       <c r="B631" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7792,7 +7788,7 @@
         <v>632</v>
       </c>
       <c r="B632" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7800,7 +7796,7 @@
         <v>633</v>
       </c>
       <c r="B633" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7808,7 +7804,7 @@
         <v>634</v>
       </c>
       <c r="B634" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7816,7 +7812,7 @@
         <v>635</v>
       </c>
       <c r="B635" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7824,7 +7820,7 @@
         <v>636</v>
       </c>
       <c r="B636" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7832,7 +7828,7 @@
         <v>637</v>
       </c>
       <c r="B637" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7840,7 +7836,7 @@
         <v>638</v>
       </c>
       <c r="B638" s="1">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7848,7 +7844,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7856,7 +7852,7 @@
         <v>640</v>
       </c>
       <c r="B640" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7864,7 +7860,7 @@
         <v>641</v>
       </c>
       <c r="B641" s="1">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7872,7 +7868,7 @@
         <v>642</v>
       </c>
       <c r="B642" s="1">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7880,7 +7876,7 @@
         <v>643</v>
       </c>
       <c r="B643" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7888,7 +7884,7 @@
         <v>644</v>
       </c>
       <c r="B644" s="1">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7896,7 +7892,7 @@
         <v>645</v>
       </c>
       <c r="B645" s="1">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7904,7 +7900,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7912,7 +7908,7 @@
         <v>647</v>
       </c>
       <c r="B647" s="1">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7920,7 +7916,7 @@
         <v>648</v>
       </c>
       <c r="B648" s="1">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7928,7 +7924,7 @@
         <v>649</v>
       </c>
       <c r="B649" s="1">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7936,7 +7932,7 @@
         <v>650</v>
       </c>
       <c r="B650" s="1">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7944,7 +7940,7 @@
         <v>651</v>
       </c>
       <c r="B651" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7952,7 +7948,7 @@
         <v>652</v>
       </c>
       <c r="B652" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7960,7 +7956,7 @@
         <v>653</v>
       </c>
       <c r="B653" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7968,7 +7964,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7976,7 +7972,7 @@
         <v>655</v>
       </c>
       <c r="B655" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7984,7 +7980,7 @@
         <v>656</v>
       </c>
       <c r="B656" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7992,7 +7988,7 @@
         <v>657</v>
       </c>
       <c r="B657" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -8000,7 +7996,7 @@
         <v>658</v>
       </c>
       <c r="B658" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -8008,7 +8004,7 @@
         <v>659</v>
       </c>
       <c r="B659" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -8016,7 +8012,7 @@
         <v>660</v>
       </c>
       <c r="B660" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -8024,7 +8020,7 @@
         <v>661</v>
       </c>
       <c r="B661" s="1">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -8032,7 +8028,7 @@
         <v>662</v>
       </c>
       <c r="B662" s="1">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -8040,7 +8036,7 @@
         <v>663</v>
       </c>
       <c r="B663" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -8048,7 +8044,7 @@
         <v>664</v>
       </c>
       <c r="B664" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -8056,7 +8052,7 @@
         <v>665</v>
       </c>
       <c r="B665" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -8064,7 +8060,7 @@
         <v>666</v>
       </c>
       <c r="B666" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -8072,7 +8068,7 @@
         <v>667</v>
       </c>
       <c r="B667" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -8080,7 +8076,7 @@
         <v>668</v>
       </c>
       <c r="B668" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -8088,7 +8084,7 @@
         <v>669</v>
       </c>
       <c r="B669" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -8096,7 +8092,7 @@
         <v>670</v>
       </c>
       <c r="B670" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -8104,7 +8100,7 @@
         <v>671</v>
       </c>
       <c r="B671" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -8112,7 +8108,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -8120,7 +8116,7 @@
         <v>673</v>
       </c>
       <c r="B673" s="1">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8128,7 +8124,7 @@
         <v>674</v>
       </c>
       <c r="B674" s="1">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8136,7 +8132,7 @@
         <v>675</v>
       </c>
       <c r="B675" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8144,7 +8140,7 @@
         <v>676</v>
       </c>
       <c r="B676" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -8152,7 +8148,7 @@
         <v>677</v>
       </c>
       <c r="B677" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -8160,7 +8156,7 @@
         <v>678</v>
       </c>
       <c r="B678" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -8168,7 +8164,7 @@
         <v>679</v>
       </c>
       <c r="B679" s="1">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -8176,7 +8172,7 @@
         <v>680</v>
       </c>
       <c r="B680" s="1">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -8184,7 +8180,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -8192,7 +8188,7 @@
         <v>682</v>
       </c>
       <c r="B682" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -8200,7 +8196,7 @@
         <v>683</v>
       </c>
       <c r="B683" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -8208,7 +8204,7 @@
         <v>684</v>
       </c>
       <c r="B684" s="1">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -8216,7 +8212,7 @@
         <v>685</v>
       </c>
       <c r="B685" s="1">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -8224,7 +8220,7 @@
         <v>686</v>
       </c>
       <c r="B686" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -8232,7 +8228,7 @@
         <v>687</v>
       </c>
       <c r="B687" s="1">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -8240,7 +8236,7 @@
         <v>688</v>
       </c>
       <c r="B688" s="1">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -8248,7 +8244,7 @@
         <v>689</v>
       </c>
       <c r="B689" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -8256,7 +8252,7 @@
         <v>690</v>
       </c>
       <c r="B690" s="1">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -8264,7 +8260,7 @@
         <v>691</v>
       </c>
       <c r="B691" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -8272,7 +8268,7 @@
         <v>692</v>
       </c>
       <c r="B692" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -8280,7 +8276,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -8288,7 +8284,7 @@
         <v>694</v>
       </c>
       <c r="B694" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -8296,7 +8292,7 @@
         <v>695</v>
       </c>
       <c r="B695" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -8304,7 +8300,7 @@
         <v>696</v>
       </c>
       <c r="B696" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -8312,7 +8308,7 @@
         <v>697</v>
       </c>
       <c r="B697" s="1">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -8320,7 +8316,7 @@
         <v>698</v>
       </c>
       <c r="B698" s="1">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -8328,7 +8324,7 @@
         <v>699</v>
       </c>
       <c r="B699" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -8336,7 +8332,7 @@
         <v>700</v>
       </c>
       <c r="B700" s="1">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -8344,7 +8340,7 @@
         <v>701</v>
       </c>
       <c r="B701" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -8352,7 +8348,7 @@
         <v>702</v>
       </c>
       <c r="B702" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -8360,7 +8356,7 @@
         <v>703</v>
       </c>
       <c r="B703" s="1">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -8368,7 +8364,7 @@
         <v>704</v>
       </c>
       <c r="B704" s="1">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -8376,14 +8372,6 @@
         <v>705</v>
       </c>
       <c r="B705" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B706" s="1">
         <v>742</v>
       </c>
     </row>

--- a/List_Franchise_noChicken2.xlsx
+++ b/List_Franchise_noChicken2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$705</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$704</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,16 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="705">
   <si>
     <t>Search Query</t>
   </si>
   <si>
     <t>Store_ID_raw</t>
-  </si>
-  <si>
-    <t>오므토토마토</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>스쿨푸드</t>
@@ -2723,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B705"/>
+  <dimension ref="A1:B704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2832,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2840,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2856,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2864,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2872,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2880,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2896,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2904,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2912,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2920,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2928,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2952,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2960,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2968,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +2976,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3000,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3008,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3016,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3024,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3040,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3048,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3056,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3064,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3072,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3080,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3088,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3096,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3104,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3112,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3120,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3128,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3136,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3144,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3152,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3160,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3168,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3176,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3184,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3192,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3200,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3208,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3216,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3224,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3232,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3240,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3248,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3256,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3264,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3272,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3280,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3288,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3296,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3304,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3312,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3320,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3328,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3336,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3344,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3352,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3360,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3368,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3376,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3384,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3392,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3400,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3416,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3424,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3432,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3440,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3448,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3456,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3464,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3472,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3480,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3488,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3496,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3504,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3512,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3520,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3528,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3536,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3544,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3552,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3560,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3568,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3576,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3584,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3592,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3600,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3608,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3616,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3624,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3632,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3640,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3648,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3656,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3664,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3672,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3680,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3688,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3696,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3704,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3712,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3720,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3728,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3736,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3744,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3752,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3760,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3768,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3776,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3784,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3792,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3800,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3808,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3816,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3824,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3832,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3840,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3848,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3856,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3864,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3872,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3880,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3888,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3896,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3904,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3912,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3920,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3928,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3936,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3944,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3952,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3960,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3968,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3976,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="1">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3984,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3992,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4000,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4008,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4016,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4024,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4032,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4040,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4048,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4056,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4064,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4072,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4080,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4088,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4096,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4104,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4112,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4120,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4128,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4136,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4144,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4152,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4160,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4168,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4176,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4184,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4192,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4200,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4208,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4216,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4224,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4232,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4240,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4248,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4256,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4264,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4272,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4280,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4288,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4296,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4304,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4312,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4320,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4328,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4336,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4344,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4352,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4360,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4368,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4376,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4384,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4392,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4400,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4408,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4416,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4424,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4432,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4440,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4448,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4456,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4464,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4472,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4480,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4488,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4496,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4504,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4512,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4520,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4528,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4536,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4544,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,7 +4552,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4560,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4568,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4576,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4584,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4592,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4600,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4608,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,7 +4616,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4624,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4632,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4640,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4648,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4656,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4664,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4672,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4680,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4692,7 +4688,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4696,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4704,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4712,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4720,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4728,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4736,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4748,7 +4744,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4752,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4764,7 +4760,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4768,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +4776,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,7 +4784,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4792,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4804,7 +4800,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4808,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4816,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4824,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4832,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +4840,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4848,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4856,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +4864,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4872,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,7 +4880,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4892,7 +4888,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4896,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4904,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4912,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4920,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4928,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4936,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4944,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4952,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,7 +4960,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4968,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,7 +4976,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +4984,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +4992,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5000,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5008,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5016,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5024,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5032,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5040,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5048,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5056,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5064,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5072,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5080,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,7 +5088,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5096,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5104,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5112,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5120,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5128,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,7 +5136,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5144,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +5152,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5160,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5168,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5176,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5188,7 +5184,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5192,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5204,7 +5200,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5208,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5216,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5224,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,7 +5232,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,7 +5240,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5252,7 +5248,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5260,7 +5256,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5268,7 +5264,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5276,7 +5272,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,7 +5280,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5292,7 +5288,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5296,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5308,7 +5304,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5316,7 +5312,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5324,7 +5320,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5332,7 +5328,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5336,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5344,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5352,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5364,7 +5360,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5368,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5376,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5388,7 +5384,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5396,7 +5392,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,7 +5400,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5412,7 +5408,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5420,7 +5416,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5428,7 +5424,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,7 +5432,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5440,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5452,7 +5448,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5460,7 +5456,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5468,7 +5464,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5472,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5484,7 +5480,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5492,7 +5488,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5500,7 +5496,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5508,7 +5504,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,7 +5512,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5524,7 +5520,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5532,7 +5528,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5540,7 +5536,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +5544,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,7 +5552,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5564,7 +5560,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5572,7 +5568,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5580,7 +5576,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5584,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5592,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,7 +5600,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5612,7 +5608,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,7 +5616,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5628,7 +5624,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,7 +5632,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5644,7 +5640,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5652,7 +5648,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5656,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5664,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5676,7 +5672,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5680,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5688,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5700,7 +5696,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5704,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5716,7 +5712,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5724,7 +5720,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5732,7 +5728,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5740,7 +5736,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5748,7 +5744,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5752,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5760,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5772,7 +5768,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5780,7 +5776,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5788,7 +5784,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5796,7 +5792,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5800,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5808,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5820,7 +5816,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5824,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5832,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5840,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5848,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5860,7 +5856,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5864,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5876,7 +5872,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5884,7 +5880,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5888,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5896,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5904,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +5912,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5920,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5932,7 +5928,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5940,7 +5936,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,7 +5944,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,7 +5952,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +5960,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +5968,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5976,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,7 +5984,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +5992,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,7 +6000,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6012,7 +6008,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -6020,7 +6016,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,7 +6024,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -6036,7 +6032,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6044,7 +6040,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6052,7 +6048,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6056,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -6068,7 +6064,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6072,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6080,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -6092,7 +6088,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -6100,7 +6096,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6108,7 +6104,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -6116,7 +6112,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6124,7 +6120,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,7 +6128,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,7 +6136,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6148,7 +6144,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6156,7 +6152,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6160,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6168,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6176,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6184,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6192,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6204,7 +6200,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6212,7 +6208,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6216,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6228,7 +6224,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6236,7 +6232,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6244,7 +6240,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6252,7 +6248,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6260,7 +6256,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,7 +6264,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6276,7 +6272,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6284,7 +6280,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6288,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6300,7 +6296,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6304,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6316,7 +6312,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6324,7 +6320,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6328,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6336,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +6344,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6352,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6360,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6372,7 +6368,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6380,7 +6376,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6388,7 +6384,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6396,7 +6392,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6400,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6408,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6420,7 +6416,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6424,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +6432,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +6440,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +6448,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6460,7 +6456,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +6464,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6472,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6480,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +6488,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,7 +6496,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6508,7 +6504,7 @@
         <v>472</v>
       </c>
       <c r="B472" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6516,7 +6512,7 @@
         <v>473</v>
       </c>
       <c r="B473" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6524,7 +6520,7 @@
         <v>474</v>
       </c>
       <c r="B474" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6532,7 +6528,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6536,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6544,7 @@
         <v>477</v>
       </c>
       <c r="B477" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6552,7 @@
         <v>478</v>
       </c>
       <c r="B478" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6560,7 @@
         <v>479</v>
       </c>
       <c r="B479" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6568,7 @@
         <v>480</v>
       </c>
       <c r="B480" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6580,7 +6576,7 @@
         <v>481</v>
       </c>
       <c r="B481" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6588,7 +6584,7 @@
         <v>482</v>
       </c>
       <c r="B482" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6596,7 +6592,7 @@
         <v>483</v>
       </c>
       <c r="B483" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,7 +6600,7 @@
         <v>484</v>
       </c>
       <c r="B484" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6608,7 @@
         <v>485</v>
       </c>
       <c r="B485" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6616,7 @@
         <v>486</v>
       </c>
       <c r="B486" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,7 +6624,7 @@
         <v>487</v>
       </c>
       <c r="B487" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,7 +6632,7 @@
         <v>488</v>
       </c>
       <c r="B488" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6640,7 @@
         <v>489</v>
       </c>
       <c r="B489" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6652,7 +6648,7 @@
         <v>490</v>
       </c>
       <c r="B490" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6660,7 +6656,7 @@
         <v>491</v>
       </c>
       <c r="B491" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6664,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,7 +6672,7 @@
         <v>493</v>
       </c>
       <c r="B493" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6684,7 +6680,7 @@
         <v>494</v>
       </c>
       <c r="B494" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6692,7 +6688,7 @@
         <v>495</v>
       </c>
       <c r="B495" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6696,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,7 +6704,7 @@
         <v>497</v>
       </c>
       <c r="B497" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6712,7 @@
         <v>498</v>
       </c>
       <c r="B498" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,7 +6720,7 @@
         <v>499</v>
       </c>
       <c r="B499" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6732,7 +6728,7 @@
         <v>500</v>
       </c>
       <c r="B500" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6740,7 +6736,7 @@
         <v>501</v>
       </c>
       <c r="B501" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +6744,7 @@
         <v>502</v>
       </c>
       <c r="B502" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6756,7 +6752,7 @@
         <v>503</v>
       </c>
       <c r="B503" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6760,7 @@
         <v>504</v>
       </c>
       <c r="B504" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6768,7 @@
         <v>505</v>
       </c>
       <c r="B505" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6780,7 +6776,7 @@
         <v>506</v>
       </c>
       <c r="B506" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6784,7 @@
         <v>507</v>
       </c>
       <c r="B507" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6792,7 @@
         <v>508</v>
       </c>
       <c r="B508" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6800,7 @@
         <v>509</v>
       </c>
       <c r="B509" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6808,7 @@
         <v>510</v>
       </c>
       <c r="B510" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,7 +6816,7 @@
         <v>511</v>
       </c>
       <c r="B511" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6824,7 @@
         <v>512</v>
       </c>
       <c r="B512" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6832,7 @@
         <v>513</v>
       </c>
       <c r="B513" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6844,7 +6840,7 @@
         <v>514</v>
       </c>
       <c r="B514" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6848,7 @@
         <v>515</v>
       </c>
       <c r="B515" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6856,7 @@
         <v>516</v>
       </c>
       <c r="B516" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6868,7 +6864,7 @@
         <v>517</v>
       </c>
       <c r="B517" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,7 +6872,7 @@
         <v>518</v>
       </c>
       <c r="B518" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6884,7 +6880,7 @@
         <v>519</v>
       </c>
       <c r="B519" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6892,7 +6888,7 @@
         <v>520</v>
       </c>
       <c r="B520" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6896,7 @@
         <v>521</v>
       </c>
       <c r="B521" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6904,7 @@
         <v>522</v>
       </c>
       <c r="B522" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +6912,7 @@
         <v>523</v>
       </c>
       <c r="B523" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6920,7 @@
         <v>524</v>
       </c>
       <c r="B524" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6932,7 +6928,7 @@
         <v>525</v>
       </c>
       <c r="B525" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6936,7 @@
         <v>526</v>
       </c>
       <c r="B526" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6948,7 +6944,7 @@
         <v>527</v>
       </c>
       <c r="B527" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6956,7 +6952,7 @@
         <v>528</v>
       </c>
       <c r="B528" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6964,7 +6960,7 @@
         <v>529</v>
       </c>
       <c r="B529" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +6968,7 @@
         <v>530</v>
       </c>
       <c r="B530" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +6976,7 @@
         <v>531</v>
       </c>
       <c r="B531" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6984,7 @@
         <v>532</v>
       </c>
       <c r="B532" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6996,7 +6992,7 @@
         <v>533</v>
       </c>
       <c r="B533" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -7004,7 +7000,7 @@
         <v>534</v>
       </c>
       <c r="B534" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7012,7 +7008,7 @@
         <v>535</v>
       </c>
       <c r="B535" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -7020,7 +7016,7 @@
         <v>536</v>
       </c>
       <c r="B536" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -7028,7 +7024,7 @@
         <v>537</v>
       </c>
       <c r="B537" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,7 +7032,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7040,7 @@
         <v>539</v>
       </c>
       <c r="B539" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +7048,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7056,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +7064,7 @@
         <v>542</v>
       </c>
       <c r="B542" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7072,7 @@
         <v>543</v>
       </c>
       <c r="B543" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7080,7 @@
         <v>544</v>
       </c>
       <c r="B544" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7088,7 @@
         <v>545</v>
       </c>
       <c r="B545" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7096,7 @@
         <v>546</v>
       </c>
       <c r="B546" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +7104,7 @@
         <v>547</v>
       </c>
       <c r="B547" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7112,7 @@
         <v>548</v>
       </c>
       <c r="B548" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +7120,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7128,7 @@
         <v>550</v>
       </c>
       <c r="B550" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7140,7 +7136,7 @@
         <v>551</v>
       </c>
       <c r="B551" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7144,7 @@
         <v>552</v>
       </c>
       <c r="B552" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7152,7 @@
         <v>553</v>
       </c>
       <c r="B553" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7160,7 @@
         <v>554</v>
       </c>
       <c r="B554" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +7168,7 @@
         <v>555</v>
       </c>
       <c r="B555" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7180,7 +7176,7 @@
         <v>556</v>
       </c>
       <c r="B556" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +7184,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +7192,7 @@
         <v>558</v>
       </c>
       <c r="B558" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7200,7 @@
         <v>559</v>
       </c>
       <c r="B559" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +7208,7 @@
         <v>560</v>
       </c>
       <c r="B560" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7216,7 @@
         <v>561</v>
       </c>
       <c r="B561" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +7224,7 @@
         <v>562</v>
       </c>
       <c r="B562" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7232,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7240,7 @@
         <v>564</v>
       </c>
       <c r="B564" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,7 +7248,7 @@
         <v>565</v>
       </c>
       <c r="B565" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7256,7 @@
         <v>566</v>
       </c>
       <c r="B566" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7264,7 @@
         <v>567</v>
       </c>
       <c r="B567" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7272,7 @@
         <v>568</v>
       </c>
       <c r="B568" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7280,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +7288,7 @@
         <v>570</v>
       </c>
       <c r="B570" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7296,7 @@
         <v>571</v>
       </c>
       <c r="B571" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7304,7 @@
         <v>572</v>
       </c>
       <c r="B572" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7312,7 @@
         <v>573</v>
       </c>
       <c r="B573" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7320,7 @@
         <v>574</v>
       </c>
       <c r="B574" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7328,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7336,7 @@
         <v>576</v>
       </c>
       <c r="B576" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7344,7 @@
         <v>577</v>
       </c>
       <c r="B577" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7352,7 @@
         <v>578</v>
       </c>
       <c r="B578" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7360,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7368,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,7 +7376,7 @@
         <v>581</v>
       </c>
       <c r="B581" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7388,7 +7384,7 @@
         <v>582</v>
       </c>
       <c r="B582" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7392,7 @@
         <v>583</v>
       </c>
       <c r="B583" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,7 +7400,7 @@
         <v>584</v>
       </c>
       <c r="B584" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7408,7 @@
         <v>585</v>
       </c>
       <c r="B585" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7416,7 @@
         <v>586</v>
       </c>
       <c r="B586" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7428,7 +7424,7 @@
         <v>587</v>
       </c>
       <c r="B587" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7432,7 @@
         <v>588</v>
       </c>
       <c r="B588" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7440,7 @@
         <v>589</v>
       </c>
       <c r="B589" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7452,7 +7448,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7456,7 @@
         <v>591</v>
       </c>
       <c r="B591" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7468,7 +7464,7 @@
         <v>592</v>
       </c>
       <c r="B592" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,7 +7472,7 @@
         <v>593</v>
       </c>
       <c r="B593" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7480,7 @@
         <v>594</v>
       </c>
       <c r="B594" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7492,7 +7488,7 @@
         <v>595</v>
       </c>
       <c r="B595" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7496,7 @@
         <v>596</v>
       </c>
       <c r="B596" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7504,7 @@
         <v>597</v>
       </c>
       <c r="B597" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7512,7 @@
         <v>598</v>
       </c>
       <c r="B598" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7520,7 @@
         <v>599</v>
       </c>
       <c r="B599" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7528,7 @@
         <v>600</v>
       </c>
       <c r="B600" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7536,7 @@
         <v>601</v>
       </c>
       <c r="B601" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,7 +7544,7 @@
         <v>602</v>
       </c>
       <c r="B602" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7552,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7560,7 @@
         <v>604</v>
       </c>
       <c r="B604" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7568,7 @@
         <v>605</v>
       </c>
       <c r="B605" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7576,7 @@
         <v>606</v>
       </c>
       <c r="B606" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7584,7 @@
         <v>607</v>
       </c>
       <c r="B607" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7592,7 @@
         <v>608</v>
       </c>
       <c r="B608" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7600,7 @@
         <v>609</v>
       </c>
       <c r="B609" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7608,7 @@
         <v>610</v>
       </c>
       <c r="B610" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7616,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7624,7 @@
         <v>612</v>
       </c>
       <c r="B612" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7632,7 @@
         <v>613</v>
       </c>
       <c r="B613" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7644,7 +7640,7 @@
         <v>614</v>
       </c>
       <c r="B614" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7648,7 @@
         <v>615</v>
       </c>
       <c r="B615" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7656,7 @@
         <v>616</v>
       </c>
       <c r="B616" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7664,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7672,7 @@
         <v>618</v>
       </c>
       <c r="B618" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7684,7 +7680,7 @@
         <v>619</v>
       </c>
       <c r="B619" s="1">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,7 +7688,7 @@
         <v>620</v>
       </c>
       <c r="B620" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7696,7 @@
         <v>621</v>
       </c>
       <c r="B621" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7704,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7716,7 +7712,7 @@
         <v>623</v>
       </c>
       <c r="B623" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7724,7 +7720,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7728,7 @@
         <v>625</v>
       </c>
       <c r="B625" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7740,7 +7736,7 @@
         <v>626</v>
       </c>
       <c r="B626" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7748,7 +7744,7 @@
         <v>627</v>
       </c>
       <c r="B627" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,7 +7752,7 @@
         <v>628</v>
       </c>
       <c r="B628" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,7 +7760,7 @@
         <v>629</v>
       </c>
       <c r="B629" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,7 +7768,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7776,7 @@
         <v>631</v>
       </c>
       <c r="B631" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7788,7 +7784,7 @@
         <v>632</v>
       </c>
       <c r="B632" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7796,7 +7792,7 @@
         <v>633</v>
       </c>
       <c r="B633" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7800,7 @@
         <v>634</v>
       </c>
       <c r="B634" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7812,7 +7808,7 @@
         <v>635</v>
       </c>
       <c r="B635" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7820,7 +7816,7 @@
         <v>636</v>
       </c>
       <c r="B636" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7828,7 +7824,7 @@
         <v>637</v>
       </c>
       <c r="B637" s="1">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7836,7 +7832,7 @@
         <v>638</v>
       </c>
       <c r="B638" s="1">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7844,7 +7840,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,7 +7848,7 @@
         <v>640</v>
       </c>
       <c r="B640" s="1">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7860,7 +7856,7 @@
         <v>641</v>
       </c>
       <c r="B641" s="1">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7868,7 +7864,7 @@
         <v>642</v>
       </c>
       <c r="B642" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7876,7 +7872,7 @@
         <v>643</v>
       </c>
       <c r="B643" s="1">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7884,7 +7880,7 @@
         <v>644</v>
       </c>
       <c r="B644" s="1">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7892,7 +7888,7 @@
         <v>645</v>
       </c>
       <c r="B645" s="1">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7900,7 +7896,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7908,7 +7904,7 @@
         <v>647</v>
       </c>
       <c r="B647" s="1">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7912,7 @@
         <v>648</v>
       </c>
       <c r="B648" s="1">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7924,7 +7920,7 @@
         <v>649</v>
       </c>
       <c r="B649" s="1">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7932,7 +7928,7 @@
         <v>650</v>
       </c>
       <c r="B650" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7940,7 +7936,7 @@
         <v>651</v>
       </c>
       <c r="B651" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7948,7 +7944,7 @@
         <v>652</v>
       </c>
       <c r="B652" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7956,7 +7952,7 @@
         <v>653</v>
       </c>
       <c r="B653" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7964,7 +7960,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7972,7 +7968,7 @@
         <v>655</v>
       </c>
       <c r="B655" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7980,7 +7976,7 @@
         <v>656</v>
       </c>
       <c r="B656" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +7984,7 @@
         <v>657</v>
       </c>
       <c r="B657" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -7996,7 +7992,7 @@
         <v>658</v>
       </c>
       <c r="B658" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -8004,7 +8000,7 @@
         <v>659</v>
       </c>
       <c r="B659" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -8012,7 +8008,7 @@
         <v>660</v>
       </c>
       <c r="B660" s="1">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -8020,7 +8016,7 @@
         <v>661</v>
       </c>
       <c r="B661" s="1">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -8028,7 +8024,7 @@
         <v>662</v>
       </c>
       <c r="B662" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -8036,7 +8032,7 @@
         <v>663</v>
       </c>
       <c r="B663" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -8044,7 +8040,7 @@
         <v>664</v>
       </c>
       <c r="B664" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -8052,7 +8048,7 @@
         <v>665</v>
       </c>
       <c r="B665" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -8060,7 +8056,7 @@
         <v>666</v>
       </c>
       <c r="B666" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -8068,7 +8064,7 @@
         <v>667</v>
       </c>
       <c r="B667" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -8076,7 +8072,7 @@
         <v>668</v>
       </c>
       <c r="B668" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -8084,7 +8080,7 @@
         <v>669</v>
       </c>
       <c r="B669" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -8092,7 +8088,7 @@
         <v>670</v>
       </c>
       <c r="B670" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -8100,7 +8096,7 @@
         <v>671</v>
       </c>
       <c r="B671" s="1">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -8108,7 +8104,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -8116,7 +8112,7 @@
         <v>673</v>
       </c>
       <c r="B673" s="1">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8124,7 +8120,7 @@
         <v>674</v>
       </c>
       <c r="B674" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8132,7 +8128,7 @@
         <v>675</v>
       </c>
       <c r="B675" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8140,7 +8136,7 @@
         <v>676</v>
       </c>
       <c r="B676" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -8148,7 +8144,7 @@
         <v>677</v>
       </c>
       <c r="B677" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -8156,7 +8152,7 @@
         <v>678</v>
       </c>
       <c r="B678" s="1">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -8164,7 +8160,7 @@
         <v>679</v>
       </c>
       <c r="B679" s="1">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -8172,7 +8168,7 @@
         <v>680</v>
       </c>
       <c r="B680" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -8180,7 +8176,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -8188,7 +8184,7 @@
         <v>682</v>
       </c>
       <c r="B682" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -8196,7 +8192,7 @@
         <v>683</v>
       </c>
       <c r="B683" s="1">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8200,7 @@
         <v>684</v>
       </c>
       <c r="B684" s="1">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -8212,7 +8208,7 @@
         <v>685</v>
       </c>
       <c r="B685" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -8220,7 +8216,7 @@
         <v>686</v>
       </c>
       <c r="B686" s="1">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,7 +8224,7 @@
         <v>687</v>
       </c>
       <c r="B687" s="1">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -8236,7 +8232,7 @@
         <v>688</v>
       </c>
       <c r="B688" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -8244,7 +8240,7 @@
         <v>689</v>
       </c>
       <c r="B689" s="1">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -8252,7 +8248,7 @@
         <v>690</v>
       </c>
       <c r="B690" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -8260,7 +8256,7 @@
         <v>691</v>
       </c>
       <c r="B691" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -8268,7 +8264,7 @@
         <v>692</v>
       </c>
       <c r="B692" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -8276,7 +8272,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -8284,7 +8280,7 @@
         <v>694</v>
       </c>
       <c r="B694" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -8292,7 +8288,7 @@
         <v>695</v>
       </c>
       <c r="B695" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,7 +8296,7 @@
         <v>696</v>
       </c>
       <c r="B696" s="1">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -8308,7 +8304,7 @@
         <v>697</v>
       </c>
       <c r="B697" s="1">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -8316,7 +8312,7 @@
         <v>698</v>
       </c>
       <c r="B698" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -8324,7 +8320,7 @@
         <v>699</v>
       </c>
       <c r="B699" s="1">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -8332,7 +8328,7 @@
         <v>700</v>
       </c>
       <c r="B700" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -8340,7 +8336,7 @@
         <v>701</v>
       </c>
       <c r="B701" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -8348,7 +8344,7 @@
         <v>702</v>
       </c>
       <c r="B702" s="1">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -8356,7 +8352,7 @@
         <v>703</v>
       </c>
       <c r="B703" s="1">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -8364,14 +8360,6 @@
         <v>704</v>
       </c>
       <c r="B704" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B705" s="1">
         <v>742</v>
       </c>
     </row>

--- a/List_Franchise_noChicken2.xlsx
+++ b/List_Franchise_noChicken2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$704</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$703</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,16 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
   <si>
     <t>Search Query</t>
   </si>
   <si>
     <t>Store_ID_raw</t>
-  </si>
-  <si>
-    <t>스쿨푸드</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>리미니</t>
@@ -2719,7 +2715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B704"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
@@ -2744,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2796,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2812,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2836,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2844,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2852,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2860,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +2868,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2884,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2892,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +2900,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +2908,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2916,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +2924,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +2932,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +2940,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +2948,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +2956,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +2964,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +2972,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +2980,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2988,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +2996,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3004,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3012,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3020,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3036,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3044,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3052,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3060,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3068,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3076,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3084,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3092,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3100,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3108,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3116,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3124,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3132,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3140,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3148,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3156,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3164,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3172,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3180,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3188,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3196,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3204,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,7 +3212,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3220,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,7 +3228,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +3236,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3244,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3252,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3264,7 +3260,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,7 +3268,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3276,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3284,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3296,7 +3292,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3304,7 +3300,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3308,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,7 +3316,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,7 +3324,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3332,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3340,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,7 +3348,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3360,7 +3356,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3368,7 +3364,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3376,7 +3372,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3384,7 +3380,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3388,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3400,7 +3396,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3404,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3416,7 +3412,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +3420,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,7 +3428,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3440,7 +3436,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +3444,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3456,7 +3452,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +3460,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,7 +3468,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3476,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +3484,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +3492,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +3500,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +3508,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +3516,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +3524,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +3532,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3544,7 +3540,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +3548,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +3556,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +3564,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3576,7 +3572,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3584,7 +3580,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3592,7 +3588,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3600,7 +3596,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3608,7 +3604,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3616,7 +3612,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3620,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3628,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,7 +3636,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3648,7 +3644,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3656,7 +3652,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3660,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3672,7 +3668,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3680,7 +3676,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3688,7 +3684,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3696,7 +3692,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3704,7 +3700,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3712,7 +3708,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3720,7 +3716,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3728,7 +3724,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3736,7 +3732,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,7 +3740,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3752,7 +3748,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3760,7 +3756,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3768,7 +3764,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3772,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +3780,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +3788,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,7 +3796,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3808,7 +3804,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,7 +3812,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +3820,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,7 +3828,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +3836,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,7 +3844,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +3852,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3864,7 +3860,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3872,7 +3868,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3880,7 +3876,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3888,7 +3884,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3896,7 +3892,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3904,7 +3900,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3912,7 +3908,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3920,7 +3916,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +3924,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +3932,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3940,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,7 +3948,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +3956,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3968,7 +3964,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="1">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3976,7 +3972,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +3980,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3992,7 +3988,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +3996,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4008,7 +4004,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4016,7 +4012,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4024,7 +4020,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4032,7 +4028,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4040,7 +4036,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4048,7 +4044,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4056,7 +4052,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4064,7 +4060,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4072,7 +4068,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4080,7 +4076,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,7 +4084,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4096,7 +4092,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +4100,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,7 +4108,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4116,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4124,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4136,7 +4132,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4140,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,7 +4148,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4160,7 +4156,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4168,7 +4164,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4172,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,7 +4180,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4192,7 +4188,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +4196,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4208,7 +4204,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4216,7 +4212,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4224,7 +4220,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4228,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,7 +4236,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4244,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4256,7 +4252,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4260,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4268,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +4276,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +4284,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4296,7 +4292,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,7 +4300,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4312,7 +4308,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4316,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4328,7 +4324,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,7 +4332,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +4340,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,7 +4348,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4360,7 +4356,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,7 +4364,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4376,7 +4372,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,7 +4380,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,7 +4388,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,7 +4396,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4408,7 +4404,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,7 +4412,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4424,7 +4420,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4432,7 +4428,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4440,7 +4436,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4448,7 +4444,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4456,7 +4452,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4460,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,7 +4468,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,7 +4476,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4484,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4492,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4500,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4512,7 +4508,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,7 +4516,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4528,7 +4524,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4532,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4540,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,7 +4548,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4560,7 +4556,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4568,7 +4564,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4572,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4580,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4592,7 +4588,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,7 +4596,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4604,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4616,7 +4612,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4624,7 +4620,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4628,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4640,7 +4636,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4648,7 +4644,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4656,7 +4652,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4664,7 +4660,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4672,7 +4668,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4680,7 +4676,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4688,7 +4684,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4696,7 +4692,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4700,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4712,7 +4708,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4720,7 +4716,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4728,7 +4724,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4736,7 +4732,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4744,7 +4740,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4752,7 +4748,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4760,7 +4756,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4768,7 +4764,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4772,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4780,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4788,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,7 +4796,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4808,7 +4804,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,7 +4812,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,7 +4820,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4832,7 +4828,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4840,7 +4836,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4844,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4856,7 +4852,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4860,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4872,7 +4868,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4880,7 +4876,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4888,7 +4884,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4892,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,7 +4900,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4912,7 +4908,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4920,7 +4916,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4928,7 +4924,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4932,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4944,7 +4940,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4952,7 +4948,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4960,7 +4956,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4968,7 +4964,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4976,7 +4972,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4984,7 +4980,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,7 +4988,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,7 +4996,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5004,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5012,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5020,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5028,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5036,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5044,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5052,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5060,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5068,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -5080,7 +5076,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -5088,7 +5084,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5092,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -5104,7 +5100,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -5112,7 +5108,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5120,7 +5116,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5124,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5132,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5140,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5148,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5160,7 +5156,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5168,7 +5164,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5172,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5180,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5188,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5200,7 +5196,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5208,7 +5204,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,7 +5212,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5224,7 +5220,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5232,7 +5228,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5240,7 +5236,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5248,7 +5244,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5256,7 +5252,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5260,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5272,7 +5268,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5280,7 +5276,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5288,7 +5284,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5292,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5304,7 +5300,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5312,7 +5308,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5316,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5328,7 +5324,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5336,7 +5332,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5344,7 +5340,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5352,7 +5348,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5360,7 +5356,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5368,7 +5364,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5376,7 +5372,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5384,7 +5380,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5392,7 +5388,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5400,7 +5396,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5408,7 +5404,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5416,7 +5412,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5424,7 +5420,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5432,7 +5428,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5440,7 +5436,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5448,7 +5444,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5456,7 +5452,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5464,7 +5460,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5472,7 +5468,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5480,7 +5476,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5484,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5492,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5504,7 +5500,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +5508,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5520,7 +5516,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5528,7 +5524,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5536,7 +5532,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5544,7 +5540,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5548,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5556,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5564,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5576,7 +5572,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5580,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,7 +5588,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5596,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,7 +5604,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,7 +5612,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5620,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5628,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5640,7 +5636,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5648,7 +5644,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5656,7 +5652,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5664,7 +5660,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5672,7 +5668,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5680,7 +5676,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5688,7 +5684,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5696,7 +5692,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5704,7 +5700,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5712,7 +5708,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5720,7 +5716,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5728,7 +5724,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5736,7 +5732,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5744,7 +5740,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5752,7 +5748,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5760,7 +5756,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5768,7 +5764,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5776,7 +5772,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5784,7 +5780,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5792,7 +5788,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5800,7 +5796,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5808,7 +5804,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5816,7 +5812,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5824,7 +5820,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5832,7 +5828,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5840,7 +5836,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5848,7 +5844,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5856,7 +5852,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5864,7 +5860,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5872,7 +5868,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5880,7 +5876,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5888,7 +5884,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5896,7 +5892,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5904,7 +5900,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5912,7 +5908,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5920,7 +5916,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5928,7 +5924,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,7 +5932,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5944,7 +5940,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5952,7 +5948,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5960,7 +5956,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5968,7 +5964,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5976,7 +5972,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5984,7 +5980,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,7 +5988,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -6000,7 +5996,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6008,7 +6004,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -6016,7 +6012,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -6024,7 +6020,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -6032,7 +6028,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6040,7 +6036,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6048,7 +6044,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6056,7 +6052,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,7 +6060,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -6072,7 +6068,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,7 +6076,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,7 +6084,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -6096,7 +6092,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6104,7 +6100,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -6112,7 +6108,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6120,7 +6116,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6128,7 +6124,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6132,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6144,7 +6140,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,7 +6148,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6160,7 +6156,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6168,7 +6164,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6176,7 +6172,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,7 +6180,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6192,7 +6188,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6200,7 +6196,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6208,7 +6204,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6216,7 +6212,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6224,7 +6220,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6232,7 +6228,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6240,7 +6236,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6248,7 +6244,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,7 +6252,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6264,7 +6260,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6272,7 +6268,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6280,7 +6276,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6288,7 +6284,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6292,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,7 +6300,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,7 +6308,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6320,7 +6316,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,7 +6324,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6336,7 +6332,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,7 +6340,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6352,7 +6348,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6360,7 +6356,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6368,7 +6364,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6376,7 +6372,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6384,7 +6380,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6392,7 +6388,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6400,7 +6396,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6408,7 +6404,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,7 +6412,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6424,7 +6420,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6432,7 +6428,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6440,7 +6436,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6448,7 +6444,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6456,7 +6452,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6464,7 +6460,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6472,7 +6468,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6480,7 +6476,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6488,7 +6484,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6496,7 +6492,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6504,7 +6500,7 @@
         <v>472</v>
       </c>
       <c r="B472" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6508,7 @@
         <v>473</v>
       </c>
       <c r="B473" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6520,7 +6516,7 @@
         <v>474</v>
       </c>
       <c r="B474" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6528,7 +6524,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6536,7 +6532,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6544,7 +6540,7 @@
         <v>477</v>
       </c>
       <c r="B477" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6552,7 +6548,7 @@
         <v>478</v>
       </c>
       <c r="B478" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6560,7 +6556,7 @@
         <v>479</v>
       </c>
       <c r="B479" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6568,7 +6564,7 @@
         <v>480</v>
       </c>
       <c r="B480" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6576,7 +6572,7 @@
         <v>481</v>
       </c>
       <c r="B481" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6584,7 +6580,7 @@
         <v>482</v>
       </c>
       <c r="B482" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6592,7 +6588,7 @@
         <v>483</v>
       </c>
       <c r="B483" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6600,7 +6596,7 @@
         <v>484</v>
       </c>
       <c r="B484" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6608,7 +6604,7 @@
         <v>485</v>
       </c>
       <c r="B485" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,7 +6612,7 @@
         <v>486</v>
       </c>
       <c r="B486" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6624,7 +6620,7 @@
         <v>487</v>
       </c>
       <c r="B487" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6632,7 +6628,7 @@
         <v>488</v>
       </c>
       <c r="B488" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,7 +6636,7 @@
         <v>489</v>
       </c>
       <c r="B489" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6648,7 +6644,7 @@
         <v>490</v>
       </c>
       <c r="B490" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6652,7 @@
         <v>491</v>
       </c>
       <c r="B491" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6664,7 +6660,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6672,7 +6668,7 @@
         <v>493</v>
       </c>
       <c r="B493" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6680,7 +6676,7 @@
         <v>494</v>
       </c>
       <c r="B494" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6688,7 +6684,7 @@
         <v>495</v>
       </c>
       <c r="B495" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6696,7 +6692,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6704,7 +6700,7 @@
         <v>497</v>
       </c>
       <c r="B497" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6712,7 +6708,7 @@
         <v>498</v>
       </c>
       <c r="B498" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6720,7 +6716,7 @@
         <v>499</v>
       </c>
       <c r="B499" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6728,7 +6724,7 @@
         <v>500</v>
       </c>
       <c r="B500" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,7 +6732,7 @@
         <v>501</v>
       </c>
       <c r="B501" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6744,7 +6740,7 @@
         <v>502</v>
       </c>
       <c r="B502" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6752,7 +6748,7 @@
         <v>503</v>
       </c>
       <c r="B503" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6760,7 +6756,7 @@
         <v>504</v>
       </c>
       <c r="B504" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6768,7 +6764,7 @@
         <v>505</v>
       </c>
       <c r="B505" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6776,7 +6772,7 @@
         <v>506</v>
       </c>
       <c r="B506" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6784,7 +6780,7 @@
         <v>507</v>
       </c>
       <c r="B507" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,7 +6788,7 @@
         <v>508</v>
       </c>
       <c r="B508" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6800,7 +6796,7 @@
         <v>509</v>
       </c>
       <c r="B509" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6808,7 +6804,7 @@
         <v>510</v>
       </c>
       <c r="B510" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6816,7 +6812,7 @@
         <v>511</v>
       </c>
       <c r="B511" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6824,7 +6820,7 @@
         <v>512</v>
       </c>
       <c r="B512" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6832,7 +6828,7 @@
         <v>513</v>
       </c>
       <c r="B513" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6840,7 +6836,7 @@
         <v>514</v>
       </c>
       <c r="B514" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6848,7 +6844,7 @@
         <v>515</v>
       </c>
       <c r="B515" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6856,7 +6852,7 @@
         <v>516</v>
       </c>
       <c r="B516" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6864,7 +6860,7 @@
         <v>517</v>
       </c>
       <c r="B517" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,7 +6868,7 @@
         <v>518</v>
       </c>
       <c r="B518" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +6876,7 @@
         <v>519</v>
       </c>
       <c r="B519" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6888,7 +6884,7 @@
         <v>520</v>
       </c>
       <c r="B520" s="1">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6896,7 +6892,7 @@
         <v>521</v>
       </c>
       <c r="B521" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6904,7 +6900,7 @@
         <v>522</v>
       </c>
       <c r="B522" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6912,7 +6908,7 @@
         <v>523</v>
       </c>
       <c r="B523" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6920,7 +6916,7 @@
         <v>524</v>
       </c>
       <c r="B524" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6928,7 +6924,7 @@
         <v>525</v>
       </c>
       <c r="B525" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6936,7 +6932,7 @@
         <v>526</v>
       </c>
       <c r="B526" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6944,7 +6940,7 @@
         <v>527</v>
       </c>
       <c r="B527" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,7 +6948,7 @@
         <v>528</v>
       </c>
       <c r="B528" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6960,7 +6956,7 @@
         <v>529</v>
       </c>
       <c r="B529" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6968,7 +6964,7 @@
         <v>530</v>
       </c>
       <c r="B530" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6976,7 +6972,7 @@
         <v>531</v>
       </c>
       <c r="B531" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6984,7 +6980,7 @@
         <v>532</v>
       </c>
       <c r="B532" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6992,7 +6988,7 @@
         <v>533</v>
       </c>
       <c r="B533" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -7000,7 +6996,7 @@
         <v>534</v>
       </c>
       <c r="B534" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7008,7 +7004,7 @@
         <v>535</v>
       </c>
       <c r="B535" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -7016,7 +7012,7 @@
         <v>536</v>
       </c>
       <c r="B536" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7020,7 @@
         <v>537</v>
       </c>
       <c r="B537" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -7032,7 +7028,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -7040,7 +7036,7 @@
         <v>539</v>
       </c>
       <c r="B539" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7048,7 +7044,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -7056,7 +7052,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -7064,7 +7060,7 @@
         <v>542</v>
       </c>
       <c r="B542" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -7072,7 +7068,7 @@
         <v>543</v>
       </c>
       <c r="B543" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7080,7 +7076,7 @@
         <v>544</v>
       </c>
       <c r="B544" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7088,7 +7084,7 @@
         <v>545</v>
       </c>
       <c r="B545" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7092,7 @@
         <v>546</v>
       </c>
       <c r="B546" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -7104,7 +7100,7 @@
         <v>547</v>
       </c>
       <c r="B547" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7112,7 +7108,7 @@
         <v>548</v>
       </c>
       <c r="B548" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7120,7 +7116,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7128,7 +7124,7 @@
         <v>550</v>
       </c>
       <c r="B550" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7136,7 +7132,7 @@
         <v>551</v>
       </c>
       <c r="B551" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7144,7 +7140,7 @@
         <v>552</v>
       </c>
       <c r="B552" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7152,7 +7148,7 @@
         <v>553</v>
       </c>
       <c r="B553" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7160,7 +7156,7 @@
         <v>554</v>
       </c>
       <c r="B554" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7168,7 +7164,7 @@
         <v>555</v>
       </c>
       <c r="B555" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7176,7 +7172,7 @@
         <v>556</v>
       </c>
       <c r="B556" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7184,7 +7180,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7192,7 +7188,7 @@
         <v>558</v>
       </c>
       <c r="B558" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7200,7 +7196,7 @@
         <v>559</v>
       </c>
       <c r="B559" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7208,7 +7204,7 @@
         <v>560</v>
       </c>
       <c r="B560" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7216,7 +7212,7 @@
         <v>561</v>
       </c>
       <c r="B561" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7224,7 +7220,7 @@
         <v>562</v>
       </c>
       <c r="B562" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7228,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7240,7 +7236,7 @@
         <v>564</v>
       </c>
       <c r="B564" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7248,7 +7244,7 @@
         <v>565</v>
       </c>
       <c r="B565" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7256,7 +7252,7 @@
         <v>566</v>
       </c>
       <c r="B566" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7264,7 +7260,7 @@
         <v>567</v>
       </c>
       <c r="B567" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7272,7 +7268,7 @@
         <v>568</v>
       </c>
       <c r="B568" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7280,7 +7276,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7288,7 +7284,7 @@
         <v>570</v>
       </c>
       <c r="B570" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7296,7 +7292,7 @@
         <v>571</v>
       </c>
       <c r="B571" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7300,7 @@
         <v>572</v>
       </c>
       <c r="B572" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7312,7 +7308,7 @@
         <v>573</v>
       </c>
       <c r="B573" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7320,7 +7316,7 @@
         <v>574</v>
       </c>
       <c r="B574" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7328,7 +7324,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +7332,7 @@
         <v>576</v>
       </c>
       <c r="B576" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7344,7 +7340,7 @@
         <v>577</v>
       </c>
       <c r="B577" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7352,7 +7348,7 @@
         <v>578</v>
       </c>
       <c r="B578" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7360,7 +7356,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7368,7 +7364,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7372,7 @@
         <v>581</v>
       </c>
       <c r="B581" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7384,7 +7380,7 @@
         <v>582</v>
       </c>
       <c r="B582" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7392,7 +7388,7 @@
         <v>583</v>
       </c>
       <c r="B583" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7400,7 +7396,7 @@
         <v>584</v>
       </c>
       <c r="B584" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7408,7 +7404,7 @@
         <v>585</v>
       </c>
       <c r="B585" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7416,7 +7412,7 @@
         <v>586</v>
       </c>
       <c r="B586" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7424,7 +7420,7 @@
         <v>587</v>
       </c>
       <c r="B587" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7432,7 +7428,7 @@
         <v>588</v>
       </c>
       <c r="B588" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7440,7 +7436,7 @@
         <v>589</v>
       </c>
       <c r="B589" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7448,7 +7444,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="1">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7456,7 +7452,7 @@
         <v>591</v>
       </c>
       <c r="B591" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7464,7 +7460,7 @@
         <v>592</v>
       </c>
       <c r="B592" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7472,7 +7468,7 @@
         <v>593</v>
       </c>
       <c r="B593" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7480,7 +7476,7 @@
         <v>594</v>
       </c>
       <c r="B594" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7488,7 +7484,7 @@
         <v>595</v>
       </c>
       <c r="B595" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7496,7 +7492,7 @@
         <v>596</v>
       </c>
       <c r="B596" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7504,7 +7500,7 @@
         <v>597</v>
       </c>
       <c r="B597" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7512,7 +7508,7 @@
         <v>598</v>
       </c>
       <c r="B598" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,7 +7516,7 @@
         <v>599</v>
       </c>
       <c r="B599" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7528,7 +7524,7 @@
         <v>600</v>
       </c>
       <c r="B600" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7536,7 +7532,7 @@
         <v>601</v>
       </c>
       <c r="B601" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7544,7 +7540,7 @@
         <v>602</v>
       </c>
       <c r="B602" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7552,7 +7548,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7560,7 +7556,7 @@
         <v>604</v>
       </c>
       <c r="B604" s="1">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7568,7 +7564,7 @@
         <v>605</v>
       </c>
       <c r="B605" s="1">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7576,7 +7572,7 @@
         <v>606</v>
       </c>
       <c r="B606" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7584,7 +7580,7 @@
         <v>607</v>
       </c>
       <c r="B607" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7592,7 +7588,7 @@
         <v>608</v>
       </c>
       <c r="B608" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7600,7 +7596,7 @@
         <v>609</v>
       </c>
       <c r="B609" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7608,7 +7604,7 @@
         <v>610</v>
       </c>
       <c r="B610" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7616,7 +7612,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7624,7 +7620,7 @@
         <v>612</v>
       </c>
       <c r="B612" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7632,7 +7628,7 @@
         <v>613</v>
       </c>
       <c r="B613" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7640,7 +7636,7 @@
         <v>614</v>
       </c>
       <c r="B614" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7648,7 +7644,7 @@
         <v>615</v>
       </c>
       <c r="B615" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7656,7 +7652,7 @@
         <v>616</v>
       </c>
       <c r="B616" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7664,7 +7660,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7672,7 +7668,7 @@
         <v>618</v>
       </c>
       <c r="B618" s="1">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7680,7 +7676,7 @@
         <v>619</v>
       </c>
       <c r="B619" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7688,7 +7684,7 @@
         <v>620</v>
       </c>
       <c r="B620" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7696,7 +7692,7 @@
         <v>621</v>
       </c>
       <c r="B621" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7704,7 +7700,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7712,7 +7708,7 @@
         <v>623</v>
       </c>
       <c r="B623" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7720,7 +7716,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7728,7 +7724,7 @@
         <v>625</v>
       </c>
       <c r="B625" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7736,7 +7732,7 @@
         <v>626</v>
       </c>
       <c r="B626" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7744,7 +7740,7 @@
         <v>627</v>
       </c>
       <c r="B627" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7752,7 +7748,7 @@
         <v>628</v>
       </c>
       <c r="B628" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7760,7 +7756,7 @@
         <v>629</v>
       </c>
       <c r="B629" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7768,7 +7764,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7776,7 +7772,7 @@
         <v>631</v>
       </c>
       <c r="B631" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7784,7 +7780,7 @@
         <v>632</v>
       </c>
       <c r="B632" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7792,7 +7788,7 @@
         <v>633</v>
       </c>
       <c r="B633" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7800,7 +7796,7 @@
         <v>634</v>
       </c>
       <c r="B634" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7808,7 +7804,7 @@
         <v>635</v>
       </c>
       <c r="B635" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7816,7 +7812,7 @@
         <v>636</v>
       </c>
       <c r="B636" s="1">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7824,7 +7820,7 @@
         <v>637</v>
       </c>
       <c r="B637" s="1">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7832,7 +7828,7 @@
         <v>638</v>
       </c>
       <c r="B638" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7840,7 +7836,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7848,7 +7844,7 @@
         <v>640</v>
       </c>
       <c r="B640" s="1">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7856,7 +7852,7 @@
         <v>641</v>
       </c>
       <c r="B641" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7864,7 +7860,7 @@
         <v>642</v>
       </c>
       <c r="B642" s="1">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7872,7 +7868,7 @@
         <v>643</v>
       </c>
       <c r="B643" s="1">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7880,7 +7876,7 @@
         <v>644</v>
       </c>
       <c r="B644" s="1">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7888,7 +7884,7 @@
         <v>645</v>
       </c>
       <c r="B645" s="1">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7896,7 +7892,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7904,7 +7900,7 @@
         <v>647</v>
       </c>
       <c r="B647" s="1">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7912,7 +7908,7 @@
         <v>648</v>
       </c>
       <c r="B648" s="1">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7920,7 +7916,7 @@
         <v>649</v>
       </c>
       <c r="B649" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7928,7 +7924,7 @@
         <v>650</v>
       </c>
       <c r="B650" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7936,7 +7932,7 @@
         <v>651</v>
       </c>
       <c r="B651" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7944,7 +7940,7 @@
         <v>652</v>
       </c>
       <c r="B652" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7952,7 +7948,7 @@
         <v>653</v>
       </c>
       <c r="B653" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7960,7 +7956,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7968,7 +7964,7 @@
         <v>655</v>
       </c>
       <c r="B655" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7976,7 +7972,7 @@
         <v>656</v>
       </c>
       <c r="B656" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7984,7 +7980,7 @@
         <v>657</v>
       </c>
       <c r="B657" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -7992,7 +7988,7 @@
         <v>658</v>
       </c>
       <c r="B658" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -8000,7 +7996,7 @@
         <v>659</v>
       </c>
       <c r="B659" s="1">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -8008,7 +8004,7 @@
         <v>660</v>
       </c>
       <c r="B660" s="1">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -8016,7 +8012,7 @@
         <v>661</v>
       </c>
       <c r="B661" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -8024,7 +8020,7 @@
         <v>662</v>
       </c>
       <c r="B662" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -8032,7 +8028,7 @@
         <v>663</v>
       </c>
       <c r="B663" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -8040,7 +8036,7 @@
         <v>664</v>
       </c>
       <c r="B664" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -8048,7 +8044,7 @@
         <v>665</v>
       </c>
       <c r="B665" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -8056,7 +8052,7 @@
         <v>666</v>
       </c>
       <c r="B666" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -8064,7 +8060,7 @@
         <v>667</v>
       </c>
       <c r="B667" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -8072,7 +8068,7 @@
         <v>668</v>
       </c>
       <c r="B668" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -8080,7 +8076,7 @@
         <v>669</v>
       </c>
       <c r="B669" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -8088,7 +8084,7 @@
         <v>670</v>
       </c>
       <c r="B670" s="1">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -8096,7 +8092,7 @@
         <v>671</v>
       </c>
       <c r="B671" s="1">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -8104,7 +8100,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -8112,7 +8108,7 @@
         <v>673</v>
       </c>
       <c r="B673" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8120,7 +8116,7 @@
         <v>674</v>
       </c>
       <c r="B674" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8128,7 +8124,7 @@
         <v>675</v>
       </c>
       <c r="B675" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8136,7 +8132,7 @@
         <v>676</v>
       </c>
       <c r="B676" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -8144,7 +8140,7 @@
         <v>677</v>
       </c>
       <c r="B677" s="1">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -8152,7 +8148,7 @@
         <v>678</v>
       </c>
       <c r="B678" s="1">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -8160,7 +8156,7 @@
         <v>679</v>
       </c>
       <c r="B679" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -8168,7 +8164,7 @@
         <v>680</v>
       </c>
       <c r="B680" s="1">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -8176,7 +8172,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -8184,7 +8180,7 @@
         <v>682</v>
       </c>
       <c r="B682" s="1">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -8192,7 +8188,7 @@
         <v>683</v>
       </c>
       <c r="B683" s="1">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -8200,7 +8196,7 @@
         <v>684</v>
       </c>
       <c r="B684" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -8208,7 +8204,7 @@
         <v>685</v>
       </c>
       <c r="B685" s="1">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -8216,7 +8212,7 @@
         <v>686</v>
       </c>
       <c r="B686" s="1">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -8224,7 +8220,7 @@
         <v>687</v>
       </c>
       <c r="B687" s="1">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -8232,7 +8228,7 @@
         <v>688</v>
       </c>
       <c r="B688" s="1">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -8240,7 +8236,7 @@
         <v>689</v>
       </c>
       <c r="B689" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -8248,7 +8244,7 @@
         <v>690</v>
       </c>
       <c r="B690" s="1">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -8256,7 +8252,7 @@
         <v>691</v>
       </c>
       <c r="B691" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -8264,7 +8260,7 @@
         <v>692</v>
       </c>
       <c r="B692" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -8272,7 +8268,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -8280,7 +8276,7 @@
         <v>694</v>
       </c>
       <c r="B694" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -8288,7 +8284,7 @@
         <v>695</v>
       </c>
       <c r="B695" s="1">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -8296,7 +8292,7 @@
         <v>696</v>
       </c>
       <c r="B696" s="1">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -8304,7 +8300,7 @@
         <v>697</v>
       </c>
       <c r="B697" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -8312,7 +8308,7 @@
         <v>698</v>
       </c>
       <c r="B698" s="1">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -8320,7 +8316,7 @@
         <v>699</v>
       </c>
       <c r="B699" s="1">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -8328,7 +8324,7 @@
         <v>700</v>
       </c>
       <c r="B700" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -8336,7 +8332,7 @@
         <v>701</v>
       </c>
       <c r="B701" s="1">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -8344,7 +8340,7 @@
         <v>702</v>
       </c>
       <c r="B702" s="1">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -8352,14 +8348,6 @@
         <v>703</v>
       </c>
       <c r="B703" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B704" s="1">
         <v>742</v>
       </c>
     </row>

--- a/List_Franchise_noChicken2.xlsx
+++ b/List_Franchise_noChicken2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$703</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$701</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,20 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
   <si>
     <t>Search Query</t>
   </si>
   <si>
     <t>Store_ID_raw</t>
-  </si>
-  <si>
-    <t>리미니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판&amp;부대찌개 브라더스</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>커피빈</t>
@@ -2715,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2756,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2796,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2804,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2820,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2828,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2844,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2852,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2860,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2916,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2940,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2948,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2956,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2964,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2980,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2988,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +2996,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3004,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3012,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3020,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3028,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3036,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3044,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3052,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3060,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3068,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3076,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3084,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3092,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3100,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3108,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3116,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3124,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3132,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3140,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3148,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3156,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3164,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3172,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3180,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3188,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3196,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3204,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3212,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3220,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3228,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3236,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3244,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3252,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3260,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3268,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3276,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3284,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3292,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3300,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3308,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3316,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3324,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3332,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3340,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3348,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3356,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3364,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3372,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3380,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3388,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3396,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3404,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3412,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3420,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3428,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3436,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3444,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3452,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3460,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3468,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3476,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3484,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3492,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3500,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3508,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3524,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3532,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3540,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3548,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3556,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3564,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3572,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3580,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3588,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3596,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3604,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3612,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3620,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3628,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3636,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3644,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3652,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3660,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3668,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3676,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3684,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3692,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3700,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3708,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3716,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3724,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3732,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3740,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3748,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3756,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3764,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3772,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3780,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3788,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3796,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3804,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3812,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3820,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3828,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3836,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3844,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3852,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3860,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3868,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="1">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3876,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="1">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3884,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="1">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3892,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3900,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="1">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3908,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3916,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3924,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3932,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3940,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="1">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3948,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3956,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3964,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3972,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3980,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="1">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3988,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +3996,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4004,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4012,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4020,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4028,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4036,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4044,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="1">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4052,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4060,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4068,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4076,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4084,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4092,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4100,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4108,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4116,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4124,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4132,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4140,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4148,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4156,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4164,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4172,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4180,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4188,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4196,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4204,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4212,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4220,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4228,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4236,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4244,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4252,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4260,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4268,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4276,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4284,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4292,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4300,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4308,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4316,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4324,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4332,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4340,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4348,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4356,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4364,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4372,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="1">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4380,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4388,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4396,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4404,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4412,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4420,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4428,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4436,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4444,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4452,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4460,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4468,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4476,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4484,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4492,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4500,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4508,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4516,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4524,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4532,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4540,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,7 +4548,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4556,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4564,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4572,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4580,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4588,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4596,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4604,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,7 +4612,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4620,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4628,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4636,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4644,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4652,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4660,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4668,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4676,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4692,7 +4684,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4692,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4700,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4708,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4716,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4724,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4732,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4748,7 +4740,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4748,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4764,7 +4756,7 @@
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4764,7 @@
         <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +4772,7 @@
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,7 +4780,7 @@
         <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4788,7 @@
         <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4804,7 +4796,7 @@
         <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4804,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4812,7 @@
         <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4820,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4828,7 @@
         <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +4836,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4844,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4852,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +4860,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4868,7 @@
         <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,7 +4876,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4892,7 +4884,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4892,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4900,7 @@
         <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4908,7 @@
         <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4916,7 @@
         <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4924,7 @@
         <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4932,7 @@
         <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4940,7 @@
         <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4948,7 @@
         <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,7 +4956,7 @@
         <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4964,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,7 +4972,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +4980,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +4988,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +4996,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5004,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5012,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5020,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5028,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5036,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5044,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5052,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5060,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5068,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5076,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,7 +5084,7 @@
         <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5092,7 @@
         <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5100,7 @@
         <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5108,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5116,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5124,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,7 +5132,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5140,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +5148,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5156,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="1">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5164,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="1">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5172,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5188,7 +5180,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="1">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5188,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="1">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5204,7 +5196,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="1">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5204,7 @@
         <v>311</v>
       </c>
       <c r="B311" s="1">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5212,7 @@
         <v>312</v>
       </c>
       <c r="B312" s="1">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5220,7 @@
         <v>313</v>
       </c>
       <c r="B313" s="1">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,7 +5228,7 @@
         <v>314</v>
       </c>
       <c r="B314" s="1">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,7 +5236,7 @@
         <v>315</v>
       </c>
       <c r="B315" s="1">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5252,7 +5244,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="1">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5260,7 +5252,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="1">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5268,7 +5260,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5276,7 +5268,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,7 +5276,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5292,7 +5284,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5292,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5308,7 +5300,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5316,7 +5308,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="1">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5324,7 +5316,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5332,7 +5324,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5332,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5340,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5348,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5364,7 +5356,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5364,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5372,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5388,7 +5380,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5396,7 +5388,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,7 +5396,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5412,7 +5404,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5420,7 +5412,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5428,7 +5420,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,7 +5428,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5436,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5452,7 +5444,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5460,7 +5452,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5468,7 +5460,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5468,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5484,7 +5476,7 @@
         <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5492,7 +5484,7 @@
         <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5500,7 +5492,7 @@
         <v>347</v>
       </c>
       <c r="B347" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5508,7 +5500,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,7 +5508,7 @@
         <v>349</v>
       </c>
       <c r="B349" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5524,7 +5516,7 @@
         <v>350</v>
       </c>
       <c r="B350" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5532,7 +5524,7 @@
         <v>351</v>
       </c>
       <c r="B351" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5540,7 +5532,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +5540,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="1">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,7 +5548,7 @@
         <v>354</v>
       </c>
       <c r="B354" s="1">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5564,7 +5556,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="1">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5572,7 +5564,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5580,7 +5572,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5580,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="1">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5588,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,7 +5596,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5612,7 +5604,7 @@
         <v>361</v>
       </c>
       <c r="B361" s="1">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,7 +5612,7 @@
         <v>362</v>
       </c>
       <c r="B362" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5628,7 +5620,7 @@
         <v>363</v>
       </c>
       <c r="B363" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,7 +5628,7 @@
         <v>364</v>
       </c>
       <c r="B364" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5644,7 +5636,7 @@
         <v>365</v>
       </c>
       <c r="B365" s="1">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5652,7 +5644,7 @@
         <v>366</v>
       </c>
       <c r="B366" s="1">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5652,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="1">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5660,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5676,7 +5668,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5676,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5684,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="1">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5700,7 +5692,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="1">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5700,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5716,7 +5708,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5724,7 +5716,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="1">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5732,7 +5724,7 @@
         <v>376</v>
       </c>
       <c r="B376" s="1">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5740,7 +5732,7 @@
         <v>377</v>
       </c>
       <c r="B377" s="1">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5748,7 +5740,7 @@
         <v>378</v>
       </c>
       <c r="B378" s="1">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5748,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5756,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5772,7 +5764,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5780,7 +5772,7 @@
         <v>382</v>
       </c>
       <c r="B382" s="1">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5788,7 +5780,7 @@
         <v>383</v>
       </c>
       <c r="B383" s="1">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5796,7 +5788,7 @@
         <v>384</v>
       </c>
       <c r="B384" s="1">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5796,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="1">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5804,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5820,7 +5812,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5820,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5828,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5836,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="1">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5844,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="1">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5860,7 +5852,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="1">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5860,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="1">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5876,7 +5868,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5884,7 +5876,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="1">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5884,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5892,7 @@
         <v>397</v>
       </c>
       <c r="B397" s="1">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5900,7 @@
         <v>398</v>
       </c>
       <c r="B398" s="1">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +5908,7 @@
         <v>399</v>
       </c>
       <c r="B399" s="1">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5916,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="1">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5932,7 +5924,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5940,7 +5932,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="1">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,7 +5940,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,7 +5948,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="1">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +5956,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="1">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +5964,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5972,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="1">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,7 +5980,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="1">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +5988,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="1">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,7 +5996,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="1">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -6012,7 +6004,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="1">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -6020,7 +6012,7 @@
         <v>412</v>
       </c>
       <c r="B412" s="1">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,7 +6020,7 @@
         <v>413</v>
       </c>
       <c r="B413" s="1">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6036,7 +6028,7 @@
         <v>414</v>
       </c>
       <c r="B414" s="1">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6044,7 +6036,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="1">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6052,7 +6044,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="1">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6052,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="1">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -6068,7 +6060,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="1">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6068,7 @@
         <v>419</v>
       </c>
       <c r="B419" s="1">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6076,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="1">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -6092,7 +6084,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="1">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6100,7 +6092,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="1">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -6108,7 +6100,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="1">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6116,7 +6108,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="1">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6124,7 +6116,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="1">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,7 +6124,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,7 +6132,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="1">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6148,7 +6140,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="1">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6156,7 +6148,7 @@
         <v>429</v>
       </c>
       <c r="B429" s="1">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6156,7 @@
         <v>430</v>
       </c>
       <c r="B430" s="1">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6164,7 @@
         <v>431</v>
       </c>
       <c r="B431" s="1">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6172,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6180,7 @@
         <v>433</v>
       </c>
       <c r="B433" s="1">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6188,7 @@
         <v>434</v>
       </c>
       <c r="B434" s="1">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6204,7 +6196,7 @@
         <v>435</v>
       </c>
       <c r="B435" s="1">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6212,7 +6204,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="1">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6212,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="1">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6228,7 +6220,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6236,7 +6228,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="1">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6244,7 +6236,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6252,7 +6244,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6260,7 +6252,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,7 +6260,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="1">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6276,7 +6268,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="1">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6284,7 +6276,7 @@
         <v>445</v>
       </c>
       <c r="B445" s="1">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6284,7 @@
         <v>446</v>
       </c>
       <c r="B446" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6300,7 +6292,7 @@
         <v>447</v>
       </c>
       <c r="B447" s="1">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6300,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="1">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6316,7 +6308,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="1">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6324,7 +6316,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="1">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6324,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="1">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6332,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="1">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +6340,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="1">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6348,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="1">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6356,7 @@
         <v>455</v>
       </c>
       <c r="B455" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6372,7 +6364,7 @@
         <v>456</v>
       </c>
       <c r="B456" s="1">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6380,7 +6372,7 @@
         <v>457</v>
       </c>
       <c r="B457" s="1">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6388,7 +6380,7 @@
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6396,7 +6388,7 @@
         <v>459</v>
       </c>
       <c r="B459" s="1">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6396,7 @@
         <v>460</v>
       </c>
       <c r="B460" s="1">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6404,7 @@
         <v>461</v>
       </c>
       <c r="B461" s="1">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6420,7 +6412,7 @@
         <v>462</v>
       </c>
       <c r="B462" s="1">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6420,7 @@
         <v>463</v>
       </c>
       <c r="B463" s="1">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +6428,7 @@
         <v>464</v>
       </c>
       <c r="B464" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +6436,7 @@
         <v>465</v>
       </c>
       <c r="B465" s="1">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +6444,7 @@
         <v>466</v>
       </c>
       <c r="B466" s="1">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6460,7 +6452,7 @@
         <v>467</v>
       </c>
       <c r="B467" s="1">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +6460,7 @@
         <v>468</v>
       </c>
       <c r="B468" s="1">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6468,7 @@
         <v>469</v>
       </c>
       <c r="B469" s="1">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6476,7 @@
         <v>470</v>
       </c>
       <c r="B470" s="1">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +6484,7 @@
         <v>471</v>
       </c>
       <c r="B471" s="1">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,7 +6492,7 @@
         <v>472</v>
       </c>
       <c r="B472" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6508,7 +6500,7 @@
         <v>473</v>
       </c>
       <c r="B473" s="1">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6516,7 +6508,7 @@
         <v>474</v>
       </c>
       <c r="B474" s="1">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6524,7 +6516,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6532,7 +6524,7 @@
         <v>476</v>
       </c>
       <c r="B476" s="1">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6532,7 @@
         <v>477</v>
       </c>
       <c r="B477" s="1">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6540,7 @@
         <v>478</v>
       </c>
       <c r="B478" s="1">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6548,7 @@
         <v>479</v>
       </c>
       <c r="B479" s="1">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6556,7 @@
         <v>480</v>
       </c>
       <c r="B480" s="1">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6564,7 @@
         <v>481</v>
       </c>
       <c r="B481" s="1">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6580,7 +6572,7 @@
         <v>482</v>
       </c>
       <c r="B482" s="1">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6588,7 +6580,7 @@
         <v>483</v>
       </c>
       <c r="B483" s="1">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6596,7 +6588,7 @@
         <v>484</v>
       </c>
       <c r="B484" s="1">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,7 +6596,7 @@
         <v>485</v>
       </c>
       <c r="B485" s="1">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6604,7 @@
         <v>486</v>
       </c>
       <c r="B486" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6612,7 @@
         <v>487</v>
       </c>
       <c r="B487" s="1">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,7 +6620,7 @@
         <v>488</v>
       </c>
       <c r="B488" s="1">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,7 +6628,7 @@
         <v>489</v>
       </c>
       <c r="B489" s="1">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6636,7 @@
         <v>490</v>
       </c>
       <c r="B490" s="1">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6652,7 +6644,7 @@
         <v>491</v>
       </c>
       <c r="B491" s="1">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6660,7 +6652,7 @@
         <v>492</v>
       </c>
       <c r="B492" s="1">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6660,7 @@
         <v>493</v>
       </c>
       <c r="B493" s="1">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,7 +6668,7 @@
         <v>494</v>
       </c>
       <c r="B494" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6684,7 +6676,7 @@
         <v>495</v>
       </c>
       <c r="B495" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6692,7 +6684,7 @@
         <v>496</v>
       </c>
       <c r="B496" s="1">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6692,7 @@
         <v>497</v>
       </c>
       <c r="B497" s="1">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,7 +6700,7 @@
         <v>498</v>
       </c>
       <c r="B498" s="1">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6708,7 @@
         <v>499</v>
       </c>
       <c r="B499" s="1">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,7 +6716,7 @@
         <v>500</v>
       </c>
       <c r="B500" s="1">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6732,7 +6724,7 @@
         <v>501</v>
       </c>
       <c r="B501" s="1">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6740,7 +6732,7 @@
         <v>502</v>
       </c>
       <c r="B502" s="1">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +6740,7 @@
         <v>503</v>
       </c>
       <c r="B503" s="1">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6756,7 +6748,7 @@
         <v>504</v>
       </c>
       <c r="B504" s="1">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6756,7 @@
         <v>505</v>
       </c>
       <c r="B505" s="1">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6764,7 @@
         <v>506</v>
       </c>
       <c r="B506" s="1">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6780,7 +6772,7 @@
         <v>507</v>
       </c>
       <c r="B507" s="1">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6780,7 @@
         <v>508</v>
       </c>
       <c r="B508" s="1">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6788,7 @@
         <v>509</v>
       </c>
       <c r="B509" s="1">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6796,7 @@
         <v>510</v>
       </c>
       <c r="B510" s="1">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6804,7 @@
         <v>511</v>
       </c>
       <c r="B511" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,7 +6812,7 @@
         <v>512</v>
       </c>
       <c r="B512" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6820,7 @@
         <v>513</v>
       </c>
       <c r="B513" s="1">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6828,7 @@
         <v>514</v>
       </c>
       <c r="B514" s="1">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6844,7 +6836,7 @@
         <v>515</v>
       </c>
       <c r="B515" s="1">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6844,7 @@
         <v>516</v>
       </c>
       <c r="B516" s="1">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6852,7 @@
         <v>517</v>
       </c>
       <c r="B517" s="1">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6868,7 +6860,7 @@
         <v>518</v>
       </c>
       <c r="B518" s="1">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,7 +6868,7 @@
         <v>519</v>
       </c>
       <c r="B519" s="1">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6884,7 +6876,7 @@
         <v>520</v>
       </c>
       <c r="B520" s="1">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6892,7 +6884,7 @@
         <v>521</v>
       </c>
       <c r="B521" s="1">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6892,7 @@
         <v>522</v>
       </c>
       <c r="B522" s="1">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6900,7 @@
         <v>523</v>
       </c>
       <c r="B523" s="1">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +6908,7 @@
         <v>524</v>
       </c>
       <c r="B524" s="1">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6916,7 @@
         <v>525</v>
       </c>
       <c r="B525" s="1">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6932,7 +6924,7 @@
         <v>526</v>
       </c>
       <c r="B526" s="1">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6932,7 @@
         <v>527</v>
       </c>
       <c r="B527" s="1">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6948,7 +6940,7 @@
         <v>528</v>
       </c>
       <c r="B528" s="1">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6956,7 +6948,7 @@
         <v>529</v>
       </c>
       <c r="B529" s="1">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6964,7 +6956,7 @@
         <v>530</v>
       </c>
       <c r="B530" s="1">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +6964,7 @@
         <v>531</v>
       </c>
       <c r="B531" s="1">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +6972,7 @@
         <v>532</v>
       </c>
       <c r="B532" s="1">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6980,7 @@
         <v>533</v>
       </c>
       <c r="B533" s="1">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6996,7 +6988,7 @@
         <v>534</v>
       </c>
       <c r="B534" s="1">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7004,7 +6996,7 @@
         <v>535</v>
       </c>
       <c r="B535" s="1">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -7012,7 +7004,7 @@
         <v>536</v>
       </c>
       <c r="B536" s="1">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -7020,7 +7012,7 @@
         <v>537</v>
       </c>
       <c r="B537" s="1">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -7028,7 +7020,7 @@
         <v>538</v>
       </c>
       <c r="B538" s="1">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,7 +7028,7 @@
         <v>539</v>
       </c>
       <c r="B539" s="1">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7036,7 @@
         <v>540</v>
       </c>
       <c r="B540" s="1">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +7044,7 @@
         <v>541</v>
       </c>
       <c r="B541" s="1">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7052,7 @@
         <v>542</v>
       </c>
       <c r="B542" s="1">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +7060,7 @@
         <v>543</v>
       </c>
       <c r="B543" s="1">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7068,7 @@
         <v>544</v>
       </c>
       <c r="B544" s="1">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7076,7 @@
         <v>545</v>
       </c>
       <c r="B545" s="1">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7084,7 @@
         <v>546</v>
       </c>
       <c r="B546" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7092,7 @@
         <v>547</v>
       </c>
       <c r="B547" s="1">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +7100,7 @@
         <v>548</v>
       </c>
       <c r="B548" s="1">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7108,7 @@
         <v>549</v>
       </c>
       <c r="B549" s="1">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +7116,7 @@
         <v>550</v>
       </c>
       <c r="B550" s="1">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7124,7 @@
         <v>551</v>
       </c>
       <c r="B551" s="1">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7140,7 +7132,7 @@
         <v>552</v>
       </c>
       <c r="B552" s="1">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7140,7 @@
         <v>553</v>
       </c>
       <c r="B553" s="1">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7148,7 @@
         <v>554</v>
       </c>
       <c r="B554" s="1">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7156,7 @@
         <v>555</v>
       </c>
       <c r="B555" s="1">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +7164,7 @@
         <v>556</v>
       </c>
       <c r="B556" s="1">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7180,7 +7172,7 @@
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +7180,7 @@
         <v>558</v>
       </c>
       <c r="B558" s="1">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +7188,7 @@
         <v>559</v>
       </c>
       <c r="B559" s="1">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7196,7 @@
         <v>560</v>
       </c>
       <c r="B560" s="1">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +7204,7 @@
         <v>561</v>
       </c>
       <c r="B561" s="1">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7212,7 @@
         <v>562</v>
       </c>
       <c r="B562" s="1">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +7220,7 @@
         <v>563</v>
       </c>
       <c r="B563" s="1">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7228,7 @@
         <v>564</v>
       </c>
       <c r="B564" s="1">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7236,7 @@
         <v>565</v>
       </c>
       <c r="B565" s="1">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,7 +7244,7 @@
         <v>566</v>
       </c>
       <c r="B566" s="1">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7252,7 @@
         <v>567</v>
       </c>
       <c r="B567" s="1">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7260,7 @@
         <v>568</v>
       </c>
       <c r="B568" s="1">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7268,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7276,7 @@
         <v>570</v>
       </c>
       <c r="B570" s="1">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +7284,7 @@
         <v>571</v>
       </c>
       <c r="B571" s="1">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7292,7 @@
         <v>572</v>
       </c>
       <c r="B572" s="1">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7300,7 @@
         <v>573</v>
       </c>
       <c r="B573" s="1">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7308,7 @@
         <v>574</v>
       </c>
       <c r="B574" s="1">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7316,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7324,7 @@
         <v>576</v>
       </c>
       <c r="B576" s="1">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7332,7 @@
         <v>577</v>
       </c>
       <c r="B577" s="1">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7340,7 @@
         <v>578</v>
       </c>
       <c r="B578" s="1">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7348,7 @@
         <v>579</v>
       </c>
       <c r="B579" s="1">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7356,7 @@
         <v>580</v>
       </c>
       <c r="B580" s="1">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7364,7 @@
         <v>581</v>
       </c>
       <c r="B581" s="1">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,7 +7372,7 @@
         <v>582</v>
       </c>
       <c r="B582" s="1">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7388,7 +7380,7 @@
         <v>583</v>
       </c>
       <c r="B583" s="1">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7388,7 @@
         <v>584</v>
       </c>
       <c r="B584" s="1">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,7 +7396,7 @@
         <v>585</v>
       </c>
       <c r="B585" s="1">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7404,7 @@
         <v>586</v>
       </c>
       <c r="B586" s="1">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7412,7 @@
         <v>587</v>
       </c>
       <c r="B587" s="1">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7428,7 +7420,7 @@
         <v>588</v>
       </c>
       <c r="B588" s="1">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7428,7 @@
         <v>589</v>
       </c>
       <c r="B589" s="1">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7436,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="1">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7452,7 +7444,7 @@
         <v>591</v>
       </c>
       <c r="B591" s="1">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7452,7 @@
         <v>592</v>
       </c>
       <c r="B592" s="1">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7468,7 +7460,7 @@
         <v>593</v>
       </c>
       <c r="B593" s="1">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,7 +7468,7 @@
         <v>594</v>
       </c>
       <c r="B594" s="1">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7476,7 @@
         <v>595</v>
       </c>
       <c r="B595" s="1">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7492,7 +7484,7 @@
         <v>596</v>
       </c>
       <c r="B596" s="1">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7492,7 @@
         <v>597</v>
       </c>
       <c r="B597" s="1">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7500,7 @@
         <v>598</v>
       </c>
       <c r="B598" s="1">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7508,7 @@
         <v>599</v>
       </c>
       <c r="B599" s="1">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7516,7 @@
         <v>600</v>
       </c>
       <c r="B600" s="1">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7524,7 @@
         <v>601</v>
       </c>
       <c r="B601" s="1">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7532,7 @@
         <v>602</v>
       </c>
       <c r="B602" s="1">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,7 +7540,7 @@
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7548,7 @@
         <v>604</v>
       </c>
       <c r="B604" s="1">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7556,7 @@
         <v>605</v>
       </c>
       <c r="B605" s="1">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7564,7 @@
         <v>606</v>
       </c>
       <c r="B606" s="1">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7572,7 @@
         <v>607</v>
       </c>
       <c r="B607" s="1">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7580,7 @@
         <v>608</v>
       </c>
       <c r="B608" s="1">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7588,7 @@
         <v>609</v>
       </c>
       <c r="B609" s="1">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7596,7 @@
         <v>610</v>
       </c>
       <c r="B610" s="1">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7604,7 @@
         <v>611</v>
       </c>
       <c r="B611" s="1">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7612,7 @@
         <v>612</v>
       </c>
       <c r="B612" s="1">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7620,7 @@
         <v>613</v>
       </c>
       <c r="B613" s="1">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7628,7 @@
         <v>614</v>
       </c>
       <c r="B614" s="1">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7644,7 +7636,7 @@
         <v>615</v>
       </c>
       <c r="B615" s="1">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7644,7 @@
         <v>616</v>
       </c>
       <c r="B616" s="1">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7652,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7660,7 @@
         <v>618</v>
       </c>
       <c r="B618" s="1">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7668,7 @@
         <v>619</v>
       </c>
       <c r="B619" s="1">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7684,7 +7676,7 @@
         <v>620</v>
       </c>
       <c r="B620" s="1">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,7 +7684,7 @@
         <v>621</v>
       </c>
       <c r="B621" s="1">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7692,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="1">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7700,7 @@
         <v>623</v>
       </c>
       <c r="B623" s="1">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7716,7 +7708,7 @@
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7724,7 +7716,7 @@
         <v>625</v>
       </c>
       <c r="B625" s="1">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7724,7 @@
         <v>626</v>
       </c>
       <c r="B626" s="1">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7740,7 +7732,7 @@
         <v>627</v>
       </c>
       <c r="B627" s="1">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7748,7 +7740,7 @@
         <v>628</v>
       </c>
       <c r="B628" s="1">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,7 +7748,7 @@
         <v>629</v>
       </c>
       <c r="B629" s="1">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,7 +7756,7 @@
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,7 +7764,7 @@
         <v>631</v>
       </c>
       <c r="B631" s="1">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7772,7 @@
         <v>632</v>
       </c>
       <c r="B632" s="1">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7788,7 +7780,7 @@
         <v>633</v>
       </c>
       <c r="B633" s="1">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7796,7 +7788,7 @@
         <v>634</v>
       </c>
       <c r="B634" s="1">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7796,7 @@
         <v>635</v>
       </c>
       <c r="B635" s="1">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7812,7 +7804,7 @@
         <v>636</v>
       </c>
       <c r="B636" s="1">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7820,7 +7812,7 @@
         <v>637</v>
       </c>
       <c r="B637" s="1">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7828,7 +7820,7 @@
         <v>638</v>
       </c>
       <c r="B638" s="1">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7836,7 +7828,7 @@
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7844,7 +7836,7 @@
         <v>640</v>
       </c>
       <c r="B640" s="1">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,7 +7844,7 @@
         <v>641</v>
       </c>
       <c r="B641" s="1">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7860,7 +7852,7 @@
         <v>642</v>
       </c>
       <c r="B642" s="1">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7868,7 +7860,7 @@
         <v>643</v>
       </c>
       <c r="B643" s="1">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7876,7 +7868,7 @@
         <v>644</v>
       </c>
       <c r="B644" s="1">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7884,7 +7876,7 @@
         <v>645</v>
       </c>
       <c r="B645" s="1">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7892,7 +7884,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7900,7 +7892,7 @@
         <v>647</v>
       </c>
       <c r="B647" s="1">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7908,7 +7900,7 @@
         <v>648</v>
       </c>
       <c r="B648" s="1">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7908,7 @@
         <v>649</v>
       </c>
       <c r="B649" s="1">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7924,7 +7916,7 @@
         <v>650</v>
       </c>
       <c r="B650" s="1">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7932,7 +7924,7 @@
         <v>651</v>
       </c>
       <c r="B651" s="1">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7940,7 +7932,7 @@
         <v>652</v>
       </c>
       <c r="B652" s="1">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7948,7 +7940,7 @@
         <v>653</v>
       </c>
       <c r="B653" s="1">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7956,7 +7948,7 @@
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7964,7 +7956,7 @@
         <v>655</v>
       </c>
       <c r="B655" s="1">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7972,7 +7964,7 @@
         <v>656</v>
       </c>
       <c r="B656" s="1">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7980,7 +7972,7 @@
         <v>657</v>
       </c>
       <c r="B657" s="1">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +7980,7 @@
         <v>658</v>
       </c>
       <c r="B658" s="1">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -7996,7 +7988,7 @@
         <v>659</v>
       </c>
       <c r="B659" s="1">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -8004,7 +7996,7 @@
         <v>660</v>
       </c>
       <c r="B660" s="1">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -8012,7 +8004,7 @@
         <v>661</v>
       </c>
       <c r="B661" s="1">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -8020,7 +8012,7 @@
         <v>662</v>
       </c>
       <c r="B662" s="1">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -8028,7 +8020,7 @@
         <v>663</v>
       </c>
       <c r="B663" s="1">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -8036,7 +8028,7 @@
         <v>664</v>
       </c>
       <c r="B664" s="1">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -8044,7 +8036,7 @@
         <v>665</v>
       </c>
       <c r="B665" s="1">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -8052,7 +8044,7 @@
         <v>666</v>
       </c>
       <c r="B666" s="1">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -8060,7 +8052,7 @@
         <v>667</v>
       </c>
       <c r="B667" s="1">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -8068,7 +8060,7 @@
         <v>668</v>
       </c>
       <c r="B668" s="1">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -8076,7 +8068,7 @@
         <v>669</v>
       </c>
       <c r="B669" s="1">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -8084,7 +8076,7 @@
         <v>670</v>
       </c>
       <c r="B670" s="1">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -8092,7 +8084,7 @@
         <v>671</v>
       </c>
       <c r="B671" s="1">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -8100,7 +8092,7 @@
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -8108,7 +8100,7 @@
         <v>673</v>
       </c>
       <c r="B673" s="1">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8116,7 +8108,7 @@
         <v>674</v>
       </c>
       <c r="B674" s="1">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8124,7 +8116,7 @@
         <v>675</v>
       </c>
       <c r="B675" s="1">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8132,7 +8124,7 @@
         <v>676</v>
       </c>
       <c r="B676" s="1">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -8140,7 +8132,7 @@
         <v>677</v>
       </c>
       <c r="B677" s="1">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -8148,7 +8140,7 @@
         <v>678</v>
       </c>
       <c r="B678" s="1">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -8156,7 +8148,7 @@
         <v>679</v>
       </c>
       <c r="B679" s="1">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -8164,7 +8156,7 @@
         <v>680</v>
       </c>
       <c r="B680" s="1">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -8172,7 +8164,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -8180,7 +8172,7 @@
         <v>682</v>
       </c>
       <c r="B682" s="1">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -8188,7 +8180,7 @@
         <v>683</v>
       </c>
       <c r="B683" s="1">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -8196,7 +8188,7 @@
         <v>684</v>
       </c>
       <c r="B684" s="1">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8196,7 @@
         <v>685</v>
       </c>
       <c r="B685" s="1">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -8212,7 +8204,7 @@
         <v>686</v>
       </c>
       <c r="B686" s="1">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -8220,7 +8212,7 @@
         <v>687</v>
       </c>
       <c r="B687" s="1">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,7 +8220,7 @@
         <v>688</v>
       </c>
       <c r="B688" s="1">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -8236,7 +8228,7 @@
         <v>689</v>
       </c>
       <c r="B689" s="1">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -8244,7 +8236,7 @@
         <v>690</v>
       </c>
       <c r="B690" s="1">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -8252,7 +8244,7 @@
         <v>691</v>
       </c>
       <c r="B691" s="1">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -8260,7 +8252,7 @@
         <v>692</v>
       </c>
       <c r="B692" s="1">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -8268,7 +8260,7 @@
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -8276,7 +8268,7 @@
         <v>694</v>
       </c>
       <c r="B694" s="1">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -8284,7 +8276,7 @@
         <v>695</v>
       </c>
       <c r="B695" s="1">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -8292,7 +8284,7 @@
         <v>696</v>
       </c>
       <c r="B696" s="1">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,7 +8292,7 @@
         <v>697</v>
       </c>
       <c r="B697" s="1">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -8308,7 +8300,7 @@
         <v>698</v>
       </c>
       <c r="B698" s="1">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -8316,7 +8308,7 @@
         <v>699</v>
       </c>
       <c r="B699" s="1">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -8324,7 +8316,7 @@
         <v>700</v>
       </c>
       <c r="B700" s="1">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -8332,22 +8324,6 @@
         <v>701</v>
       </c>
       <c r="B701" s="1">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B702" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B703" s="1">
         <v>742</v>
       </c>
     </row>

--- a/List_Franchise_noChicken2.xlsx
+++ b/List_Franchise_noChicken2.xlsx
@@ -1,57 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\upwork\boramProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\boramProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE384B2-E882-4B37-95F1-6CFC0B8039BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="9330"/>
+    <workbookView xWindow="3720" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$703</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$701</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
   <si>
     <t>Search Query</t>
   </si>
   <si>
     <t>Store_ID_raw</t>
-  </si>
-  <si>
-    <t>리미니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판&amp;부대찌개 브라더스</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>커피빈</t>
@@ -2362,7 +2344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2714,20 +2696,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B703"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2735,5619 +2717,5603 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B123" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B142" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B144" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B145" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B153" s="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B155" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B156" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B157" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B159" s="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B160" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B161" s="1">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B163" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B164" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B165" s="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B166" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B167" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B169" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B173" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B174" s="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B175" s="1">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B176" s="1">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B177" s="1">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B178" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B184" s="1">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B185" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B186" s="1">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B187" s="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B188" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B189" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B205" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B206" s="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B207" s="1">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B208" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B209" s="1">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B211" s="1">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B212" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B213" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B305" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B306" s="1">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B307" s="1">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B308" s="1">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B309" s="1">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B310" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B311" s="1">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B312" s="1">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B313" s="1">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B314" s="1">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B315" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B316" s="1">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B317" s="1">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B318" s="1">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B319" s="1">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B320" s="1">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B321" s="1">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B322" s="1">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B323" s="1">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B324" s="1">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B325" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B326" s="1">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B327" s="1">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B328" s="1">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B332" s="1">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B333" s="1">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B334" s="1">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B347" s="1">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B348" s="1">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B349" s="1">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B350" s="1">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B351" s="1">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B352" s="1">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B353" s="1">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B354" s="1">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B355" s="1">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B356" s="1">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B357" s="1">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B358" s="1">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B359" s="1">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B360" s="1">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B361" s="1">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B362" s="1">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B363" s="1">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B364" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B365" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B366" s="1">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B367" s="1">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B368" s="1">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B369" s="1">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B370" s="1">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B371" s="1">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B372" s="1">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B373" s="1">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B374" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B375" s="1">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B376" s="1">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B377" s="1">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B378" s="1">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B379" s="1">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B380" s="1">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B381" s="1">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B382" s="1">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B383" s="1">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B384" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B385" s="1">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B386" s="1">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B387" s="1">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B388" s="1">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B389" s="1">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B390" s="1">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B391" s="1">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B392" s="1">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B393" s="1">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B394" s="1">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B395" s="1">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B396" s="1">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B397" s="1">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B398" s="1">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B399" s="1">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B400" s="1">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B401" s="1">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B402" s="1">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B403" s="1">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B404" s="1">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B405" s="1">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B406" s="1">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B407" s="1">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B408" s="1">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B409" s="1">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B410" s="1">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B411" s="1">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B412" s="1">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B413" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B414" s="1">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B415" s="1">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B416" s="1">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B417" s="1">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B418" s="1">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B419" s="1">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B420" s="1">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B421" s="1">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B422" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B423" s="1">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B424" s="1">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B425" s="1">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B426" s="1">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B427" s="1">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B428" s="1">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B429" s="1">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B430" s="1">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B431" s="1">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B432" s="1">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B433" s="1">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B434" s="1">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B435" s="1">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B436" s="1">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B437" s="1">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B438" s="1">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B439" s="1">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B440" s="1">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B441" s="1">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B442" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B443" s="1">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B444" s="1">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B445" s="1">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B446" s="1">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B447" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B448" s="1">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B449" s="1">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B450" s="1">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B451" s="1">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B452" s="1">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B453" s="1">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B454" s="1">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B455" s="1">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B456" s="1">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B457" s="1">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B458" s="1">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B459" s="1">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B460" s="1">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B461" s="1">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B462" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B463" s="1">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B464" s="1">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B465" s="1">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B466" s="1">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B467" s="1">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B468" s="1">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B469" s="1">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B470" s="1">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B471" s="1">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B472" s="1">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B473" s="1">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B474" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B476" s="1">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B477" s="1">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B478" s="1">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B479" s="1">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B480" s="1">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B481" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B482" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B483" s="1">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B484" s="1">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B485" s="1">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B486" s="1">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B487" s="1">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B488" s="1">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B489" s="1">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B490" s="1">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B491" s="1">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B492" s="1">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B493" s="1">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B494" s="1">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B495" s="1">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B496" s="1">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B497" s="1">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B498" s="1">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B499" s="1">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B500" s="1">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B501" s="1">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B502" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B503" s="1">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B504" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B505" s="1">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B506" s="1">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>507</v>
       </c>
       <c r="B507" s="1">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B508" s="1">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B509" s="1">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B510" s="1">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B511" s="1">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B512" s="1">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B513" s="1">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B514" s="1">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B515" s="1">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>516</v>
       </c>
       <c r="B516" s="1">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B517" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B518" s="1">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>519</v>
       </c>
       <c r="B519" s="1">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B520" s="1">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>521</v>
       </c>
       <c r="B521" s="1">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B522" s="1">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>523</v>
       </c>
       <c r="B523" s="1">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B524" s="1">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B525" s="1">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B526" s="1">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>527</v>
       </c>
       <c r="B527" s="1">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B528" s="1">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B529" s="1">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B530" s="1">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B531" s="1">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>532</v>
       </c>
       <c r="B532" s="1">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>533</v>
       </c>
       <c r="B533" s="1">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B534" s="1">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B535" s="1">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B536" s="1">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B537" s="1">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B538" s="1">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B539" s="1">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B540" s="1">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B541" s="1">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B542" s="1">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B543" s="1">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B544" s="1">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>545</v>
       </c>
       <c r="B545" s="1">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B546" s="1">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>547</v>
       </c>
       <c r="B547" s="1">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B548" s="1">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B549" s="1">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B550" s="1">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B551" s="1">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B552" s="1">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B553" s="1">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B554" s="1">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B555" s="1">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B556" s="1">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B557" s="1">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B558" s="1">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B559" s="1">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B560" s="1">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B561" s="1">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B562" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B563" s="1">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B564" s="1">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B565" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B566" s="1">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>567</v>
       </c>
       <c r="B567" s="1">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B568" s="1">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B570" s="1">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B571" s="1">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B572" s="1">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>573</v>
       </c>
       <c r="B573" s="1">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B574" s="1">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B576" s="1">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B577" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B578" s="1">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>579</v>
       </c>
       <c r="B579" s="1">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B580" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>581</v>
       </c>
       <c r="B581" s="1">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B582" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>583</v>
       </c>
       <c r="B583" s="1">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B584" s="1">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>585</v>
       </c>
       <c r="B585" s="1">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B586" s="1">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>587</v>
       </c>
       <c r="B587" s="1">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B588" s="1">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>589</v>
       </c>
       <c r="B589" s="1">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B590" s="1">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>591</v>
       </c>
       <c r="B591" s="1">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>592</v>
       </c>
       <c r="B592" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>593</v>
       </c>
       <c r="B593" s="1">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B594" s="1">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>595</v>
       </c>
       <c r="B595" s="1">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>596</v>
       </c>
       <c r="B596" s="1">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>597</v>
       </c>
       <c r="B597" s="1">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>598</v>
       </c>
       <c r="B598" s="1">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B599" s="1">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>600</v>
       </c>
       <c r="B600" s="1">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>601</v>
       </c>
       <c r="B601" s="1">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B602" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>603</v>
       </c>
       <c r="B603" s="1">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>604</v>
       </c>
       <c r="B604" s="1">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B605" s="1">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>606</v>
       </c>
       <c r="B606" s="1">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B607" s="1">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B608" s="1">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B609" s="1">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B610" s="1">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>611</v>
       </c>
       <c r="B611" s="1">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>612</v>
       </c>
       <c r="B612" s="1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>613</v>
       </c>
       <c r="B613" s="1">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B614" s="1">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B615" s="1">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>616</v>
       </c>
       <c r="B616" s="1">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B618" s="1">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B619" s="1">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B620" s="1">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>621</v>
       </c>
       <c r="B621" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B622" s="1">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>623</v>
       </c>
       <c r="B623" s="1">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B624" s="1">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B625" s="1">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B626" s="1">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B627" s="1">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B628" s="1">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B629" s="1">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>630</v>
       </c>
       <c r="B630" s="1">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B631" s="1">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B632" s="1">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>633</v>
       </c>
       <c r="B633" s="1">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B634" s="1">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B635" s="1">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B636" s="1">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>637</v>
       </c>
       <c r="B637" s="1">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B638" s="1">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B639" s="1">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B640" s="1">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B641" s="1">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>642</v>
       </c>
       <c r="B642" s="1">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>643</v>
       </c>
       <c r="B643" s="1">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B644" s="1">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>645</v>
       </c>
       <c r="B645" s="1">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B647" s="1">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>648</v>
       </c>
       <c r="B648" s="1">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>649</v>
       </c>
       <c r="B649" s="1">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>650</v>
       </c>
       <c r="B650" s="1">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B651" s="1">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B652" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B653" s="1">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B654" s="1">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>655</v>
       </c>
       <c r="B655" s="1">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B656" s="1">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>657</v>
       </c>
       <c r="B657" s="1">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B658" s="1">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B659" s="1">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B660" s="1">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B661" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B662" s="1">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>663</v>
       </c>
       <c r="B663" s="1">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B664" s="1">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B665" s="1">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B666" s="1">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B667" s="1">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B668" s="1">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B669" s="1">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B670" s="1">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B671" s="1">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B672" s="1">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>673</v>
       </c>
       <c r="B673" s="1">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B674" s="1">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B675" s="1">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B676" s="1">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B677" s="1">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>678</v>
       </c>
       <c r="B678" s="1">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B679" s="1">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>680</v>
       </c>
       <c r="B680" s="1">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>682</v>
       </c>
       <c r="B682" s="1">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>683</v>
       </c>
       <c r="B683" s="1">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>684</v>
       </c>
       <c r="B684" s="1">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B685" s="1">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>686</v>
       </c>
       <c r="B686" s="1">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B687" s="1">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>688</v>
       </c>
       <c r="B688" s="1">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>689</v>
       </c>
       <c r="B689" s="1">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B690" s="1">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B691" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B692" s="1">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B693" s="1">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B694" s="1">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B695" s="1">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B696" s="1">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B697" s="1">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B698" s="1">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>699</v>
       </c>
       <c r="B699" s="1">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>700</v>
       </c>
       <c r="B700" s="1">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B701" s="1">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B702" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B703" s="1">
         <v>742</v>
       </c>
     </row>
